--- a/lighthouse_scores_optimized.xlsx
+++ b/lighthouse_scores_optimized.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R100"/>
+  <dimension ref="A1:Y100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,6 +524,41 @@
           <t>A11y_Issue_Reduce_unused_JavaScript</t>
         </is>
       </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Accessibility_Keyboard_Focus_`[aria_hidden=""true""]`_elements_do_not_contain_focusable_descendents</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Accessibility_Keyboard_Focus_Elements_with_the_`role=text`_attribute_do_not_have_focusable_descendents</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Accessibility_Keyboard_Focus_Skip_links_are_focusable</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Accessibility_Keyboard_Focus_Skip_links_are_not_focusable</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Accessibility_Keyboard_Focus_User_focus_is_not_accidentally_trapped_in_a_region</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Accessibility_Keyboard_Focus_Interactive_controls_are_keyboard_focusable</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Accessibility_Keyboard_Focus_The_user's_focus_is_directed_to_new_content_added_to_the_page</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -588,6 +623,13 @@
         <v>0.5</v>
       </c>
       <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -654,6 +696,13 @@
       <c r="R3" t="n">
         <v>0</v>
       </c>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -718,6 +767,13 @@
         <v>0.5</v>
       </c>
       <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -784,6 +840,13 @@
       <c r="R5" t="n">
         <v>0</v>
       </c>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -850,6 +913,13 @@
       <c r="R6" t="n">
         <v>0</v>
       </c>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -890,6 +960,13 @@
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -956,6 +1033,13 @@
       <c r="R8" t="n">
         <v>0</v>
       </c>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1022,6 +1106,13 @@
       <c r="R9" t="n">
         <v>0</v>
       </c>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1088,6 +1179,13 @@
       <c r="R10" t="n">
         <v>0</v>
       </c>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1154,6 +1252,13 @@
       <c r="R11" t="n">
         <v>0</v>
       </c>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1220,6 +1325,13 @@
       <c r="R12" t="n">
         <v>0</v>
       </c>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1286,6 +1398,13 @@
       <c r="R13" t="n">
         <v>0</v>
       </c>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1326,6 +1445,13 @@
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1392,6 +1518,13 @@
       <c r="R15" t="n">
         <v>0</v>
       </c>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1456,6 +1589,13 @@
       <c r="R16" t="n">
         <v>0</v>
       </c>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1522,6 +1662,13 @@
       <c r="R17" t="n">
         <v>0</v>
       </c>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1588,6 +1735,13 @@
       <c r="R18" t="n">
         <v>0</v>
       </c>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1654,6 +1808,13 @@
       <c r="R19" t="n">
         <v>0</v>
       </c>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr"/>
+      <c r="Y19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1720,6 +1881,13 @@
       <c r="R20" t="n">
         <v>0</v>
       </c>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr"/>
+      <c r="Y20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1786,6 +1954,13 @@
       <c r="R21" t="n">
         <v>0</v>
       </c>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="inlineStr"/>
+      <c r="Y21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1852,6 +2027,13 @@
       <c r="R22" t="n">
         <v>0</v>
       </c>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
+      <c r="X22" t="inlineStr"/>
+      <c r="Y22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1916,6 +2098,13 @@
       <c r="R23" t="n">
         <v>0</v>
       </c>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
+      <c r="X23" t="inlineStr"/>
+      <c r="Y23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1982,6 +2171,13 @@
       <c r="R24" t="n">
         <v>0</v>
       </c>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
+      <c r="X24" t="inlineStr"/>
+      <c r="Y24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2022,6 +2218,13 @@
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
+      <c r="X25" t="inlineStr"/>
+      <c r="Y25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2086,6 +2289,13 @@
       <c r="R26" t="n">
         <v>0</v>
       </c>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
+      <c r="X26" t="inlineStr"/>
+      <c r="Y26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2152,6 +2362,13 @@
       <c r="R27" t="n">
         <v>0</v>
       </c>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
+      <c r="X27" t="inlineStr"/>
+      <c r="Y27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2218,6 +2435,15 @@
       <c r="R28" t="n">
         <v>0</v>
       </c>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="inlineStr"/>
+      <c r="X28" t="inlineStr"/>
+      <c r="Y28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2284,6 +2510,13 @@
       <c r="R29" t="n">
         <v>0</v>
       </c>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
+      <c r="X29" t="inlineStr"/>
+      <c r="Y29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2348,6 +2581,13 @@
       <c r="R30" t="n">
         <v>0</v>
       </c>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
+      <c r="X30" t="inlineStr"/>
+      <c r="Y30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2414,6 +2654,13 @@
       <c r="R31" t="n">
         <v>0.5</v>
       </c>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2454,6 +2701,13 @@
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
+      <c r="X32" t="inlineStr"/>
+      <c r="Y32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2520,6 +2774,13 @@
       <c r="R33" t="n">
         <v>0</v>
       </c>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
+      <c r="X33" t="inlineStr"/>
+      <c r="Y33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2586,6 +2847,13 @@
       <c r="R34" t="n">
         <v>0</v>
       </c>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr"/>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr"/>
+      <c r="X34" t="inlineStr"/>
+      <c r="Y34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2652,6 +2920,13 @@
       <c r="R35" t="n">
         <v>0.5</v>
       </c>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
+      <c r="X35" t="inlineStr"/>
+      <c r="Y35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2718,6 +2993,13 @@
       <c r="R36" t="n">
         <v>0</v>
       </c>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="inlineStr"/>
+      <c r="Y36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2758,6 +3040,13 @@
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
+      <c r="X37" t="inlineStr"/>
+      <c r="Y37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2824,6 +3113,13 @@
       <c r="R38" t="n">
         <v>0</v>
       </c>
+      <c r="S38" t="inlineStr"/>
+      <c r="T38" t="inlineStr"/>
+      <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr"/>
+      <c r="X38" t="inlineStr"/>
+      <c r="Y38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2864,6 +3160,13 @@
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr"/>
+      <c r="X39" t="inlineStr"/>
+      <c r="Y39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2930,6 +3233,13 @@
       <c r="R40" t="n">
         <v>0</v>
       </c>
+      <c r="S40" t="inlineStr"/>
+      <c r="T40" t="inlineStr"/>
+      <c r="U40" t="inlineStr"/>
+      <c r="V40" t="inlineStr"/>
+      <c r="W40" t="inlineStr"/>
+      <c r="X40" t="inlineStr"/>
+      <c r="Y40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2996,6 +3306,13 @@
       <c r="R41" t="n">
         <v>0</v>
       </c>
+      <c r="S41" t="inlineStr"/>
+      <c r="T41" t="inlineStr"/>
+      <c r="U41" t="inlineStr"/>
+      <c r="V41" t="inlineStr"/>
+      <c r="W41" t="inlineStr"/>
+      <c r="X41" t="inlineStr"/>
+      <c r="Y41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -3062,6 +3379,13 @@
       <c r="R42" t="n">
         <v>0</v>
       </c>
+      <c r="S42" t="inlineStr"/>
+      <c r="T42" t="inlineStr"/>
+      <c r="U42" t="inlineStr"/>
+      <c r="V42" t="inlineStr"/>
+      <c r="W42" t="inlineStr"/>
+      <c r="X42" t="inlineStr"/>
+      <c r="Y42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -3128,6 +3452,13 @@
       <c r="R43" t="n">
         <v>0</v>
       </c>
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="inlineStr"/>
+      <c r="U43" t="inlineStr"/>
+      <c r="V43" t="inlineStr"/>
+      <c r="W43" t="inlineStr"/>
+      <c r="X43" t="inlineStr"/>
+      <c r="Y43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3194,6 +3525,13 @@
       <c r="R44" t="n">
         <v>0</v>
       </c>
+      <c r="S44" t="inlineStr"/>
+      <c r="T44" t="inlineStr"/>
+      <c r="U44" t="inlineStr"/>
+      <c r="V44" t="inlineStr"/>
+      <c r="W44" t="inlineStr"/>
+      <c r="X44" t="inlineStr"/>
+      <c r="Y44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3260,6 +3598,13 @@
       <c r="R45" t="n">
         <v>0</v>
       </c>
+      <c r="S45" t="inlineStr"/>
+      <c r="T45" t="inlineStr"/>
+      <c r="U45" t="inlineStr"/>
+      <c r="V45" t="inlineStr"/>
+      <c r="W45" t="inlineStr"/>
+      <c r="X45" t="inlineStr"/>
+      <c r="Y45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3326,6 +3671,13 @@
       <c r="R46" t="n">
         <v>0</v>
       </c>
+      <c r="S46" t="inlineStr"/>
+      <c r="T46" t="inlineStr"/>
+      <c r="U46" t="inlineStr"/>
+      <c r="V46" t="inlineStr"/>
+      <c r="W46" t="inlineStr"/>
+      <c r="X46" t="inlineStr"/>
+      <c r="Y46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3392,6 +3744,13 @@
       <c r="R47" t="n">
         <v>0</v>
       </c>
+      <c r="S47" t="inlineStr"/>
+      <c r="T47" t="inlineStr"/>
+      <c r="U47" t="inlineStr"/>
+      <c r="V47" t="inlineStr"/>
+      <c r="W47" t="inlineStr"/>
+      <c r="X47" t="inlineStr"/>
+      <c r="Y47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3456,6 +3815,13 @@
         <v>0.5</v>
       </c>
       <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr"/>
+      <c r="T48" t="inlineStr"/>
+      <c r="U48" t="inlineStr"/>
+      <c r="V48" t="inlineStr"/>
+      <c r="W48" t="inlineStr"/>
+      <c r="X48" t="inlineStr"/>
+      <c r="Y48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3516,6 +3882,13 @@
         <v>0</v>
       </c>
       <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
+      <c r="T49" t="inlineStr"/>
+      <c r="U49" t="inlineStr"/>
+      <c r="V49" t="inlineStr"/>
+      <c r="W49" t="inlineStr"/>
+      <c r="X49" t="inlineStr"/>
+      <c r="Y49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3582,6 +3955,13 @@
       <c r="R50" t="n">
         <v>0</v>
       </c>
+      <c r="S50" t="inlineStr"/>
+      <c r="T50" t="inlineStr"/>
+      <c r="U50" t="inlineStr"/>
+      <c r="V50" t="inlineStr"/>
+      <c r="W50" t="inlineStr"/>
+      <c r="X50" t="inlineStr"/>
+      <c r="Y50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -3646,6 +4026,13 @@
         <v>0.5</v>
       </c>
       <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
+      <c r="T51" t="inlineStr"/>
+      <c r="U51" t="inlineStr"/>
+      <c r="V51" t="inlineStr"/>
+      <c r="W51" t="inlineStr"/>
+      <c r="X51" t="inlineStr"/>
+      <c r="Y51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -3712,6 +4099,13 @@
       <c r="R52" t="n">
         <v>0.5</v>
       </c>
+      <c r="S52" t="inlineStr"/>
+      <c r="T52" t="inlineStr"/>
+      <c r="U52" t="inlineStr"/>
+      <c r="V52" t="inlineStr"/>
+      <c r="W52" t="inlineStr"/>
+      <c r="X52" t="inlineStr"/>
+      <c r="Y52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -3778,6 +4172,13 @@
       <c r="R53" t="n">
         <v>0</v>
       </c>
+      <c r="S53" t="inlineStr"/>
+      <c r="T53" t="inlineStr"/>
+      <c r="U53" t="inlineStr"/>
+      <c r="V53" t="inlineStr"/>
+      <c r="W53" t="inlineStr"/>
+      <c r="X53" t="inlineStr"/>
+      <c r="Y53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -3842,6 +4243,13 @@
       <c r="R54" t="n">
         <v>0.5</v>
       </c>
+      <c r="S54" t="inlineStr"/>
+      <c r="T54" t="inlineStr"/>
+      <c r="U54" t="inlineStr"/>
+      <c r="V54" t="inlineStr"/>
+      <c r="W54" t="inlineStr"/>
+      <c r="X54" t="inlineStr"/>
+      <c r="Y54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -3908,6 +4316,13 @@
       <c r="R55" t="n">
         <v>0.5</v>
       </c>
+      <c r="S55" t="inlineStr"/>
+      <c r="T55" t="inlineStr"/>
+      <c r="U55" t="inlineStr"/>
+      <c r="V55" t="inlineStr"/>
+      <c r="W55" t="inlineStr"/>
+      <c r="X55" t="inlineStr"/>
+      <c r="Y55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -3974,6 +4389,13 @@
       <c r="R56" t="n">
         <v>0</v>
       </c>
+      <c r="S56" t="inlineStr"/>
+      <c r="T56" t="inlineStr"/>
+      <c r="U56" t="inlineStr"/>
+      <c r="V56" t="inlineStr"/>
+      <c r="W56" t="inlineStr"/>
+      <c r="X56" t="inlineStr"/>
+      <c r="Y56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -4040,6 +4462,13 @@
       <c r="R57" t="n">
         <v>0</v>
       </c>
+      <c r="S57" t="inlineStr"/>
+      <c r="T57" t="inlineStr"/>
+      <c r="U57" t="inlineStr"/>
+      <c r="V57" t="inlineStr"/>
+      <c r="W57" t="inlineStr"/>
+      <c r="X57" t="inlineStr"/>
+      <c r="Y57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -4100,6 +4529,13 @@
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr"/>
+      <c r="T58" t="inlineStr"/>
+      <c r="U58" t="inlineStr"/>
+      <c r="V58" t="inlineStr"/>
+      <c r="W58" t="inlineStr"/>
+      <c r="X58" t="inlineStr"/>
+      <c r="Y58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -4166,6 +4602,13 @@
       <c r="R59" t="n">
         <v>0</v>
       </c>
+      <c r="S59" t="inlineStr"/>
+      <c r="T59" t="inlineStr"/>
+      <c r="U59" t="inlineStr"/>
+      <c r="V59" t="inlineStr"/>
+      <c r="W59" t="inlineStr"/>
+      <c r="X59" t="inlineStr"/>
+      <c r="Y59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -4232,6 +4675,13 @@
       <c r="R60" t="n">
         <v>0</v>
       </c>
+      <c r="S60" t="inlineStr"/>
+      <c r="T60" t="inlineStr"/>
+      <c r="U60" t="inlineStr"/>
+      <c r="V60" t="inlineStr"/>
+      <c r="W60" t="inlineStr"/>
+      <c r="X60" t="inlineStr"/>
+      <c r="Y60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -4298,6 +4748,13 @@
       <c r="R61" t="n">
         <v>0</v>
       </c>
+      <c r="S61" t="inlineStr"/>
+      <c r="T61" t="inlineStr"/>
+      <c r="U61" t="inlineStr"/>
+      <c r="V61" t="inlineStr"/>
+      <c r="W61" t="inlineStr"/>
+      <c r="X61" t="inlineStr"/>
+      <c r="Y61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -4364,6 +4821,13 @@
       <c r="R62" t="n">
         <v>0</v>
       </c>
+      <c r="S62" t="inlineStr"/>
+      <c r="T62" t="inlineStr"/>
+      <c r="U62" t="inlineStr"/>
+      <c r="V62" t="inlineStr"/>
+      <c r="W62" t="inlineStr"/>
+      <c r="X62" t="inlineStr"/>
+      <c r="Y62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -4430,6 +4894,13 @@
       <c r="R63" t="n">
         <v>0</v>
       </c>
+      <c r="S63" t="inlineStr"/>
+      <c r="T63" t="inlineStr"/>
+      <c r="U63" t="inlineStr"/>
+      <c r="V63" t="inlineStr"/>
+      <c r="W63" t="inlineStr"/>
+      <c r="X63" t="inlineStr"/>
+      <c r="Y63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -4496,6 +4967,15 @@
       <c r="R64" t="n">
         <v>0</v>
       </c>
+      <c r="S64" t="inlineStr"/>
+      <c r="T64" t="inlineStr"/>
+      <c r="U64" t="inlineStr"/>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="inlineStr"/>
+      <c r="X64" t="inlineStr"/>
+      <c r="Y64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -4562,6 +5042,13 @@
       <c r="R65" t="n">
         <v>0</v>
       </c>
+      <c r="S65" t="inlineStr"/>
+      <c r="T65" t="inlineStr"/>
+      <c r="U65" t="inlineStr"/>
+      <c r="V65" t="inlineStr"/>
+      <c r="W65" t="inlineStr"/>
+      <c r="X65" t="inlineStr"/>
+      <c r="Y65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -4628,6 +5115,13 @@
       <c r="R66" t="n">
         <v>0</v>
       </c>
+      <c r="S66" t="inlineStr"/>
+      <c r="T66" t="inlineStr"/>
+      <c r="U66" t="inlineStr"/>
+      <c r="V66" t="inlineStr"/>
+      <c r="W66" t="inlineStr"/>
+      <c r="X66" t="inlineStr"/>
+      <c r="Y66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -4694,6 +5188,13 @@
       <c r="R67" t="n">
         <v>0</v>
       </c>
+      <c r="S67" t="inlineStr"/>
+      <c r="T67" t="inlineStr"/>
+      <c r="U67" t="inlineStr"/>
+      <c r="V67" t="inlineStr"/>
+      <c r="W67" t="inlineStr"/>
+      <c r="X67" t="inlineStr"/>
+      <c r="Y67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -4760,6 +5261,13 @@
       <c r="R68" t="n">
         <v>0</v>
       </c>
+      <c r="S68" t="inlineStr"/>
+      <c r="T68" t="inlineStr"/>
+      <c r="U68" t="inlineStr"/>
+      <c r="V68" t="inlineStr"/>
+      <c r="W68" t="inlineStr"/>
+      <c r="X68" t="inlineStr"/>
+      <c r="Y68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -4826,6 +5334,13 @@
       <c r="R69" t="n">
         <v>0</v>
       </c>
+      <c r="S69" t="inlineStr"/>
+      <c r="T69" t="inlineStr"/>
+      <c r="U69" t="inlineStr"/>
+      <c r="V69" t="inlineStr"/>
+      <c r="W69" t="inlineStr"/>
+      <c r="X69" t="inlineStr"/>
+      <c r="Y69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -4890,6 +5405,13 @@
       <c r="R70" t="n">
         <v>0.5</v>
       </c>
+      <c r="S70" t="inlineStr"/>
+      <c r="T70" t="inlineStr"/>
+      <c r="U70" t="inlineStr"/>
+      <c r="V70" t="inlineStr"/>
+      <c r="W70" t="inlineStr"/>
+      <c r="X70" t="inlineStr"/>
+      <c r="Y70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -4956,6 +5478,13 @@
       <c r="R71" t="n">
         <v>0</v>
       </c>
+      <c r="S71" t="inlineStr"/>
+      <c r="T71" t="inlineStr"/>
+      <c r="U71" t="inlineStr"/>
+      <c r="V71" t="inlineStr"/>
+      <c r="W71" t="inlineStr"/>
+      <c r="X71" t="inlineStr"/>
+      <c r="Y71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -5020,6 +5549,13 @@
       <c r="R72" t="n">
         <v>0</v>
       </c>
+      <c r="S72" t="inlineStr"/>
+      <c r="T72" t="inlineStr"/>
+      <c r="U72" t="inlineStr"/>
+      <c r="V72" t="inlineStr"/>
+      <c r="W72" t="inlineStr"/>
+      <c r="X72" t="inlineStr"/>
+      <c r="Y72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -5086,6 +5622,13 @@
       <c r="R73" t="n">
         <v>0</v>
       </c>
+      <c r="S73" t="inlineStr"/>
+      <c r="T73" t="inlineStr"/>
+      <c r="U73" t="inlineStr"/>
+      <c r="V73" t="inlineStr"/>
+      <c r="W73" t="inlineStr"/>
+      <c r="X73" t="inlineStr"/>
+      <c r="Y73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -5152,6 +5695,13 @@
       <c r="R74" t="n">
         <v>0</v>
       </c>
+      <c r="S74" t="inlineStr"/>
+      <c r="T74" t="inlineStr"/>
+      <c r="U74" t="inlineStr"/>
+      <c r="V74" t="inlineStr"/>
+      <c r="W74" t="inlineStr"/>
+      <c r="X74" t="inlineStr"/>
+      <c r="Y74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -5218,6 +5768,13 @@
       <c r="R75" t="n">
         <v>0</v>
       </c>
+      <c r="S75" t="inlineStr"/>
+      <c r="T75" t="inlineStr"/>
+      <c r="U75" t="inlineStr"/>
+      <c r="V75" t="inlineStr"/>
+      <c r="W75" t="inlineStr"/>
+      <c r="X75" t="inlineStr"/>
+      <c r="Y75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -5284,6 +5841,13 @@
       <c r="R76" t="n">
         <v>0</v>
       </c>
+      <c r="S76" t="inlineStr"/>
+      <c r="T76" t="inlineStr"/>
+      <c r="U76" t="inlineStr"/>
+      <c r="V76" t="inlineStr"/>
+      <c r="W76" t="inlineStr"/>
+      <c r="X76" t="inlineStr"/>
+      <c r="Y76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -5350,6 +5914,13 @@
       <c r="R77" t="n">
         <v>0</v>
       </c>
+      <c r="S77" t="inlineStr"/>
+      <c r="T77" t="inlineStr"/>
+      <c r="U77" t="inlineStr"/>
+      <c r="V77" t="inlineStr"/>
+      <c r="W77" t="inlineStr"/>
+      <c r="X77" t="inlineStr"/>
+      <c r="Y77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -5410,6 +5981,13 @@
       <c r="R78" t="n">
         <v>0.5</v>
       </c>
+      <c r="S78" t="inlineStr"/>
+      <c r="T78" t="inlineStr"/>
+      <c r="U78" t="inlineStr"/>
+      <c r="V78" t="inlineStr"/>
+      <c r="W78" t="inlineStr"/>
+      <c r="X78" t="inlineStr"/>
+      <c r="Y78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -5476,6 +6054,13 @@
       <c r="R79" t="n">
         <v>0.5</v>
       </c>
+      <c r="S79" t="inlineStr"/>
+      <c r="T79" t="inlineStr"/>
+      <c r="U79" t="inlineStr"/>
+      <c r="V79" t="inlineStr"/>
+      <c r="W79" t="inlineStr"/>
+      <c r="X79" t="inlineStr"/>
+      <c r="Y79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -5542,6 +6127,13 @@
       <c r="R80" t="n">
         <v>0</v>
       </c>
+      <c r="S80" t="inlineStr"/>
+      <c r="T80" t="inlineStr"/>
+      <c r="U80" t="inlineStr"/>
+      <c r="V80" t="inlineStr"/>
+      <c r="W80" t="inlineStr"/>
+      <c r="X80" t="inlineStr"/>
+      <c r="Y80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -5608,6 +6200,13 @@
       <c r="R81" t="n">
         <v>0</v>
       </c>
+      <c r="S81" t="inlineStr"/>
+      <c r="T81" t="inlineStr"/>
+      <c r="U81" t="inlineStr"/>
+      <c r="V81" t="inlineStr"/>
+      <c r="W81" t="inlineStr"/>
+      <c r="X81" t="inlineStr"/>
+      <c r="Y81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -5670,6 +6269,13 @@
       </c>
       <c r="Q82" t="inlineStr"/>
       <c r="R82" t="inlineStr"/>
+      <c r="S82" t="inlineStr"/>
+      <c r="T82" t="inlineStr"/>
+      <c r="U82" t="inlineStr"/>
+      <c r="V82" t="inlineStr"/>
+      <c r="W82" t="inlineStr"/>
+      <c r="X82" t="inlineStr"/>
+      <c r="Y82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -5734,6 +6340,13 @@
       <c r="R83" t="n">
         <v>0.5</v>
       </c>
+      <c r="S83" t="inlineStr"/>
+      <c r="T83" t="inlineStr"/>
+      <c r="U83" t="inlineStr"/>
+      <c r="V83" t="inlineStr"/>
+      <c r="W83" t="inlineStr"/>
+      <c r="X83" t="inlineStr"/>
+      <c r="Y83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -5800,6 +6413,13 @@
       <c r="R84" t="n">
         <v>0</v>
       </c>
+      <c r="S84" t="inlineStr"/>
+      <c r="T84" t="inlineStr"/>
+      <c r="U84" t="inlineStr"/>
+      <c r="V84" t="inlineStr"/>
+      <c r="W84" t="inlineStr"/>
+      <c r="X84" t="inlineStr"/>
+      <c r="Y84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -5866,6 +6486,13 @@
       <c r="R85" t="n">
         <v>0</v>
       </c>
+      <c r="S85" t="inlineStr"/>
+      <c r="T85" t="inlineStr"/>
+      <c r="U85" t="inlineStr"/>
+      <c r="V85" t="inlineStr"/>
+      <c r="W85" t="inlineStr"/>
+      <c r="X85" t="inlineStr"/>
+      <c r="Y85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -5930,6 +6557,13 @@
       <c r="R86" t="n">
         <v>0</v>
       </c>
+      <c r="S86" t="inlineStr"/>
+      <c r="T86" t="inlineStr"/>
+      <c r="U86" t="inlineStr"/>
+      <c r="V86" t="inlineStr"/>
+      <c r="W86" t="inlineStr"/>
+      <c r="X86" t="inlineStr"/>
+      <c r="Y86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -5996,6 +6630,13 @@
       <c r="R87" t="n">
         <v>0</v>
       </c>
+      <c r="S87" t="inlineStr"/>
+      <c r="T87" t="inlineStr"/>
+      <c r="U87" t="inlineStr"/>
+      <c r="V87" t="inlineStr"/>
+      <c r="W87" t="inlineStr"/>
+      <c r="X87" t="inlineStr"/>
+      <c r="Y87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -6062,6 +6703,13 @@
       <c r="R88" t="n">
         <v>0</v>
       </c>
+      <c r="S88" t="inlineStr"/>
+      <c r="T88" t="inlineStr"/>
+      <c r="U88" t="inlineStr"/>
+      <c r="V88" t="inlineStr"/>
+      <c r="W88" t="inlineStr"/>
+      <c r="X88" t="inlineStr"/>
+      <c r="Y88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -6126,6 +6774,13 @@
       <c r="R89" t="n">
         <v>0</v>
       </c>
+      <c r="S89" t="inlineStr"/>
+      <c r="T89" t="inlineStr"/>
+      <c r="U89" t="inlineStr"/>
+      <c r="V89" t="inlineStr"/>
+      <c r="W89" t="inlineStr"/>
+      <c r="X89" t="inlineStr"/>
+      <c r="Y89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -6192,6 +6847,13 @@
       <c r="R90" t="n">
         <v>0</v>
       </c>
+      <c r="S90" t="inlineStr"/>
+      <c r="T90" t="inlineStr"/>
+      <c r="U90" t="inlineStr"/>
+      <c r="V90" t="inlineStr"/>
+      <c r="W90" t="inlineStr"/>
+      <c r="X90" t="inlineStr"/>
+      <c r="Y90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -6232,6 +6894,13 @@
       <c r="P91" t="inlineStr"/>
       <c r="Q91" t="inlineStr"/>
       <c r="R91" t="inlineStr"/>
+      <c r="S91" t="inlineStr"/>
+      <c r="T91" t="inlineStr"/>
+      <c r="U91" t="inlineStr"/>
+      <c r="V91" t="inlineStr"/>
+      <c r="W91" t="inlineStr"/>
+      <c r="X91" t="inlineStr"/>
+      <c r="Y91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -6298,6 +6967,13 @@
       <c r="R92" t="n">
         <v>0</v>
       </c>
+      <c r="S92" t="inlineStr"/>
+      <c r="T92" t="inlineStr"/>
+      <c r="U92" t="inlineStr"/>
+      <c r="V92" t="inlineStr"/>
+      <c r="W92" t="inlineStr"/>
+      <c r="X92" t="inlineStr"/>
+      <c r="Y92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -6364,6 +7040,13 @@
       <c r="R93" t="n">
         <v>0</v>
       </c>
+      <c r="S93" t="inlineStr"/>
+      <c r="T93" t="inlineStr"/>
+      <c r="U93" t="inlineStr"/>
+      <c r="V93" t="inlineStr"/>
+      <c r="W93" t="inlineStr"/>
+      <c r="X93" t="inlineStr"/>
+      <c r="Y93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -6430,6 +7113,13 @@
       <c r="R94" t="n">
         <v>0</v>
       </c>
+      <c r="S94" t="inlineStr"/>
+      <c r="T94" t="inlineStr"/>
+      <c r="U94" t="inlineStr"/>
+      <c r="V94" t="inlineStr"/>
+      <c r="W94" t="inlineStr"/>
+      <c r="X94" t="inlineStr"/>
+      <c r="Y94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -6494,6 +7184,13 @@
         <v>0</v>
       </c>
       <c r="R95" t="inlineStr"/>
+      <c r="S95" t="inlineStr"/>
+      <c r="T95" t="inlineStr"/>
+      <c r="U95" t="inlineStr"/>
+      <c r="V95" t="inlineStr"/>
+      <c r="W95" t="inlineStr"/>
+      <c r="X95" t="inlineStr"/>
+      <c r="Y95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -6558,6 +7255,13 @@
         <v>0.5</v>
       </c>
       <c r="R96" t="inlineStr"/>
+      <c r="S96" t="inlineStr"/>
+      <c r="T96" t="inlineStr"/>
+      <c r="U96" t="inlineStr"/>
+      <c r="V96" t="inlineStr"/>
+      <c r="W96" t="inlineStr"/>
+      <c r="X96" t="inlineStr"/>
+      <c r="Y96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -6624,6 +7328,13 @@
       <c r="R97" t="n">
         <v>0</v>
       </c>
+      <c r="S97" t="inlineStr"/>
+      <c r="T97" t="inlineStr"/>
+      <c r="U97" t="inlineStr"/>
+      <c r="V97" t="inlineStr"/>
+      <c r="W97" t="inlineStr"/>
+      <c r="X97" t="inlineStr"/>
+      <c r="Y97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -6690,6 +7401,13 @@
       <c r="R98" t="n">
         <v>0</v>
       </c>
+      <c r="S98" t="inlineStr"/>
+      <c r="T98" t="inlineStr"/>
+      <c r="U98" t="inlineStr"/>
+      <c r="V98" t="inlineStr"/>
+      <c r="W98" t="inlineStr"/>
+      <c r="X98" t="inlineStr"/>
+      <c r="Y98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -6756,6 +7474,13 @@
       <c r="R99" t="n">
         <v>0</v>
       </c>
+      <c r="S99" t="inlineStr"/>
+      <c r="T99" t="inlineStr"/>
+      <c r="U99" t="inlineStr"/>
+      <c r="V99" t="inlineStr"/>
+      <c r="W99" t="inlineStr"/>
+      <c r="X99" t="inlineStr"/>
+      <c r="Y99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -6822,6 +7547,13 @@
       <c r="R100" t="n">
         <v>0</v>
       </c>
+      <c r="S100" t="inlineStr"/>
+      <c r="T100" t="inlineStr"/>
+      <c r="U100" t="inlineStr"/>
+      <c r="V100" t="inlineStr"/>
+      <c r="W100" t="inlineStr"/>
+      <c r="X100" t="inlineStr"/>
+      <c r="Y100" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/lighthouse_scores_optimized.xlsx
+++ b/lighthouse_scores_optimized.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y100"/>
+  <dimension ref="A1:X100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,72 +491,67 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>A11y_Issue_Largest_Contentful_Paint</t>
+          <t>Accessibility_Keyboard_Focus_Interactive_controls_are_not_keyboard_focusable</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>A11y_Issue_Time_to_Interactive</t>
+          <t>Accessibility_Keyboard_Focus_Accessibility_keyboard_focus_priority</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>A11y_Issue_First_Contentful_Paint</t>
+          <t>Accessibility_Keyboard_Focus_Accessibility_keyboard_focus_details</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>A11y_Issue_Speed_Index</t>
+          <t>Accessibility_Keyboard_Focus_Accessibility_keyboard_focus_wcag</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>A11y_Issue_Reduce_unused_CSS</t>
+          <t>A11y_Issue_High_Severity_Issues</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>A11y_Issue_Render_blocking_requests</t>
+          <t>A11y_Issue_ARIA_attributes_are_not_used_correctly</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>A11y_Issue_Reduce_unused_JavaScript</t>
+          <t>Accessibility_aria_general_details</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Accessibility_Keyboard_Focus_`[aria_hidden=""true""]`_elements_do_not_contain_focusable_descendents</t>
+          <t>Accessibility_aria_general_wcag</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>Accessibility_Keyboard_Focus_Elements_with_the_`role=text`_attribute_do_not_have_focusable_descendents</t>
+          <t>Accessibility_aria_general_priority</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>Accessibility_Keyboard_Focus_Skip_links_are_focusable</t>
+          <t>A11y_Issue_Form_elements_do_not_have_associated_labels</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>Accessibility_Keyboard_Focus_Skip_links_are_not_focusable</t>
+          <t>Accessibility_forms_labels_wcag</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>Accessibility_Keyboard_Focus_User_focus_is_not_accidentally_trapped_in_a_region</t>
+          <t>Accessibility_forms_labels_details</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>Accessibility_Keyboard_Focus_Interactive_controls_are_keyboard_focusable</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>Accessibility_Keyboard_Focus_The_user's_focus_is_directed_to_new_content_added_to_the_page</t>
+          <t>Accessibility_forms_labels_priority</t>
         </is>
       </c>
     </row>
@@ -597,39 +592,44 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>First Contentful Paint (Score: 0.52); Largest Contentful Paint (Score: 0.24); Speed Index (Score: 0.63); Max Potential First Input Delay (Score: 0.83); Time to Interactive (Score: 0.75); Total Blocking Time (Score: 0.99); Image elements do not have explicit `width` and `height` (Score: 0.5); Serve static assets with an efficient cache policy (Score: 0.5); Properly size images (Score: 0.5); Improve image delivery (Score: 0.5); Render blocking requests (Score: 0.5)</t>
-        </is>
-      </c>
-      <c r="L2" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.63</v>
-      </c>
+          <t>Image elements do not have `[alt]` attributes (Score: 0.89, Severity: Low); ARIA attributes are not used correctly (Score: 0.78, Severity: Medium); Heading elements are not in a sequentially-descending order (Score: 0.72, Severity: Medium); Buttons do not have an accessible name (Score: 0.13, Severity: High)</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
       <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0.78, Severity: Medium</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>ARIA attributes are not used correctly (Score: 0.78, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>4.1.2 Name, Role, Value</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -668,41 +668,76 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Speed Index (Score: 0.05); Time to Interactive (Score: 0.07); Image elements do not have explicit `width` and `height` (Score: 0.5); Serve static assets with an efficient cache policy (Score: 0.5); Avoid enormous network payloads (Score: 0.5); Avoid an excessive DOM size (Score: 0.5); Minify JavaScript (Score: 0.5); Improve image delivery (Score: 0.5)</t>
-        </is>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0.05</v>
+          <t>ARIA attributes are not used correctly (Score: 0.18, Severity: High); Interactive controls are not keyboard focusable (Score: 0.72, Severity: Medium); Form elements do not have associated labels (Score: 0.87, Severity: Low); Buttons do not have an accessible name (Score: 0.93, Severity: Low); Page structure lacks proper landmark regions (Score: 0.76, Severity: Medium)</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>0.72, Severity: Medium</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Interactive controls are not keyboard focusable (Score: 0.72, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>2.1.1 Keyboard</t>
+        </is>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0.18, Severity: High</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>ARIA attributes are not used correctly (Score: 0.18, Severity: High) (Score: N/A, Severity: Unknown)</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>4.1.2 Name, Role, Value</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>0.87, Severity: Low</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>3.3.2 Labels or Instructions</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>Form elements do not have associated labels (Score: 0.87, Severity: Low) (Score: N/A, Severity: Unknown)</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -741,39 +776,44 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>First Contentful Paint (Score: 0.91); Largest Contentful Paint (Score: 0.36); Speed Index (Score: 0.92); Max Potential First Input Delay (Score: 0.99); Time to Interactive (Score: 0.82); Image elements do not have explicit `width` and `height` (Score: 0.5); Serve static assets with an efficient cache policy (Score: 0.5); Avoid an excessive DOM size (Score: 0.5); Serve images in next-gen formats (Score: 0.5); Properly size images (Score: 0.5); Efficiently encode images (Score: 0.5); Improve image delivery (Score: 0.5); Render blocking requests (Score: 0.5)</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.92</v>
-      </c>
+          <t>Image elements do not have `[alt]` attributes (Score: 0.71, Severity: Medium); ARIA attributes are not used correctly (Score: 0.65, Severity: Medium); Document language is not specified (Score: 0.79, Severity: Medium); Links do not have a discernible name (Score: 0.66, Severity: Medium); Page structure lacks proper landmark regions (Score: 0.72, Severity: Medium)</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
       <c r="P4" t="n">
         <v>0</v>
       </c>
-      <c r="Q4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0.65, Severity: Medium</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>ARIA attributes are not used correctly (Score: 0.65, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>4.1.2 Name, Role, Value</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -812,41 +852,44 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>First Contentful Paint (Score: 0.45); Speed Index (Score: 0.26); Max Potential First Input Delay (Score: 0.52); Time to Interactive (Score: 0.02); Total Blocking Time (Score: 0.81); Image elements do not have explicit `width` and `height` (Score: 0.5); Serve static assets with an efficient cache policy (Score: 0.5); Avoid enormous network payloads (Score: 0.5); Defer offscreen images (Score: 0.5); Eliminate render-blocking resources (Score: 0.5); Reduce unused CSS (Score: 0.5)</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.26</v>
-      </c>
+          <t>ARIA attributes are not used correctly (Score: 0.87, Severity: Low); Document language is not specified (Score: 0.16, Severity: High); Heading elements are not in a sequentially-descending order (Score: 0.85, Severity: Low)</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
       <c r="P5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0.87, Severity: Low</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>ARIA attributes are not used correctly (Score: 0.87, Severity: Low) (Score: N/A, Severity: Unknown)</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>4.1.2 Name, Role, Value</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -885,41 +928,44 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>First Contentful Paint (Score: 0.02); Speed Index (Score: 0.24); Max Potential First Input Delay (Score: 0.91); Time to Interactive (Score: 0.05); Total Blocking Time (Score: 0.96); Image elements do not have explicit `width` and `height` (Score: 0.5); Serve static assets with an efficient cache policy (Score: 0.5); Avoid an excessive DOM size (Score: 0.5); Avoid serving legacy JavaScript to modern browsers (Score: 0.5); Improve image delivery (Score: 0.5); Render blocking requests (Score: 0.5)</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.24</v>
-      </c>
+          <t>ARIA attributes are not used correctly (Score: 0.32, Severity: High); Document language is not specified (Score: 0.83, Severity: Low); Links do not have a discernible name (Score: 0.12, Severity: High); Heading elements are not in a sequentially-descending order (Score: 0.27, Severity: High)</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
       <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0.32, Severity: High</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>ARIA attributes are not used correctly (Score: 0.32, Severity: High) (Score: N/A, Severity: Unknown)</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>4.1.2 Name, Role, Value</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -950,23 +996,44 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Document language is not specified (Score: 0.35, Severity: High); Links do not have a discernible name (Score: 0.14, Severity: High); Form elements do not have associated labels (Score: 0.54, Severity: Medium); Buttons do not have an accessible name (Score: 0.11, Severity: High); Background and foreground colors do not have a sufficient contrast ratio (Score: 0.18, Severity: High)</t>
+        </is>
+      </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>0.54, Severity: Medium</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>3.3.2 Labels or Instructions</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>Form elements do not have associated labels (Score: 0.54, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1005,41 +1072,44 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>First Contentful Paint (Score: 0.24); Speed Index (Score: 0.64); Max Potential First Input Delay (Score: 0.96); Time to Interactive (Score: 0.07); Total Blocking Time (Score: 0.99); Serve static assets with an efficient cache policy (Score: 0.5); Avoid enormous network payloads (Score: 0.5); Avoid an excessive DOM size (Score: 0.5); Does not use passive listeners to improve scrolling performance (Score: 0.5); Avoid serving legacy JavaScript to modern browsers (Score: 0.5); Improve image delivery (Score: 0.5)</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0.64</v>
-      </c>
+          <t>ARIA attributes are not used correctly (Score: 0.86, Severity: Low); Document language is not specified (Score: 0.75, Severity: Medium); Buttons do not have an accessible name (Score: 0.64, Severity: Medium); Background and foreground colors do not have a sufficient contrast ratio (Score: 0.42, Severity: High); Page structure lacks proper landmark regions (Score: 0.99, Severity: Low)</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
       <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0.86, Severity: Low</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>ARIA attributes are not used correctly (Score: 0.86, Severity: Low) (Score: N/A, Severity: Unknown)</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>4.1.2 Name, Role, Value</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1078,41 +1148,44 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>First Contentful Paint (Score: 0.04); Speed Index (Score: 0.12); Max Potential First Input Delay (Score: 0.99); Image elements do not have explicit `width` and `height` (Score: 0.5); Avoid enormous network payloads (Score: 0.5); Defer offscreen images (Score: 0.5); Enable text compression (Score: 0.5); Avoid serving legacy JavaScript to modern browsers (Score: 0.5)</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0.12</v>
+          <t>Interactive controls are not keyboard focusable (Score: 0.91, Severity: Low); Background and foreground colors do not have a sufficient contrast ratio (Score: 0.99, Severity: Low)</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>0.91, Severity: Low</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Interactive controls are not keyboard focusable (Score: 0.91, Severity: Low) (Score: N/A, Severity: Unknown)</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>2.1.1 Keyboard</t>
+        </is>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1151,41 +1224,44 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>First Contentful Paint (Score: 0.96); Largest Contentful Paint (Score: 0.16); Speed Index (Score: 0.9); Max Potential First Input Delay (Score: 0.98); Time to Interactive (Score: 0.15); Image elements do not have explicit `width` and `height` (Score: 0.5); Serve static assets with an efficient cache policy (Score: 0.5); Avoid enormous network payloads (Score: 0.5); Avoid an excessive DOM size (Score: 0.5); Enable text compression (Score: 0.5); Avoid serving legacy JavaScript to modern browsers (Score: 0.5); Improve image delivery (Score: 0.5); Render blocking requests (Score: 0.5)</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0.9</v>
-      </c>
+          <t>Form elements do not have associated labels (Score: 0.28, Severity: High)</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
       <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>0.28, Severity: High</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>3.3.2 Labels or Instructions</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>Form elements do not have associated labels (Score: 0.28, Severity: High) (Score: N/A, Severity: Unknown)</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1224,41 +1300,28 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>First Contentful Paint (Score: 0.13); Speed Index (Score: 0.69); Time to Interactive (Score: 0.09); Ensure text remains visible during webfont load (Score: 0.5); Image elements do not have explicit `width` and `height` (Score: 0.5); Serve static assets with an efficient cache policy (Score: 0.5); Avoid enormous network payloads (Score: 0.5); Avoid an excessive DOM size (Score: 0.5); Minify JavaScript (Score: 0.5); Does not use passive listeners to improve scrolling performance (Score: 0.5); Avoid serving legacy JavaScript to modern browsers (Score: 0.5)</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0.6899999999999999</v>
-      </c>
+          <t>Heading elements are not in a sequentially-descending order (Score: 0.6, Severity: Medium)</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
       <c r="P11" t="n">
         <v>0</v>
       </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1297,41 +1360,44 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>First Contentful Paint (Score: 0.35); Largest Contentful Paint (Score: 0.25); Speed Index (Score: 0.68); Time to Interactive (Score: 0.76); Ensure text remains visible during webfont load (Score: 0.5); Image elements do not have explicit `width` and `height` (Score: 0.5); Serve static assets with an efficient cache policy (Score: 0.5); Serve images in next-gen formats (Score: 0.5); Properly size images (Score: 0.5); Efficiently encode images (Score: 0.5); Avoid serving legacy JavaScript to modern browsers (Score: 0.5)</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0.68</v>
-      </c>
+          <t>ARIA attributes are not used correctly (Score: 0.46, Severity: High)</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
       <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0.46, Severity: High</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>ARIA attributes are not used correctly (Score: 0.46, Severity: High) (Score: N/A, Severity: Unknown)</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>4.1.2 Name, Role, Value</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="inlineStr"/>
       <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1370,41 +1436,28 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>First Contentful Paint (Score: 0.17); Speed Index (Score: 0.75); Time to Interactive (Score: 0.06); Ensure text remains visible during webfont load (Score: 0.5); Image elements do not have explicit `width` and `height` (Score: 0.5); Serve static assets with an efficient cache policy (Score: 0.5); Avoid enormous network payloads (Score: 0.5); Avoid an excessive DOM size (Score: 0.5); Does not use passive listeners to improve scrolling performance (Score: 0.5); Avoid serving legacy JavaScript to modern browsers (Score: 0.5)</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0.75</v>
-      </c>
+          <t>Buttons do not have an accessible name (Score: 0.98, Severity: Low); Page structure lacks proper landmark regions (Score: 0.34, Severity: High)</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
       <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="inlineStr"/>
       <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1435,23 +1488,44 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Image elements do not have `[alt]` attributes (Score: 0.86, Severity: Low); Form elements do not have associated labels (Score: 0.89, Severity: Low)</t>
+        </is>
+      </c>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>0.89, Severity: Low</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>3.3.2 Labels or Instructions</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>Form elements do not have associated labels (Score: 0.89, Severity: Low) (Score: N/A, Severity: Unknown)</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1490,41 +1564,60 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>First Contentful Paint (Score: 0.76); Largest Contentful Paint (Score: 0.07); Speed Index (Score: 0.74); Max Potential First Input Delay (Score: 0.99); Time to Interactive (Score: 0.54); Serve static assets with an efficient cache policy (Score: 0.5); Avoid enormous network payloads (Score: 0.5); Defer offscreen images (Score: 0.5); Avoid an excessive DOM size (Score: 0.5); Avoid serving legacy JavaScript to modern browsers (Score: 0.5); Improve image delivery (Score: 0.5); Render blocking requests (Score: 0.5)</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0.74</v>
+          <t>Interactive controls are not keyboard focusable (Score: 0.43, Severity: High); Form elements do not have associated labels (Score: 0.98, Severity: Low); Buttons do not have an accessible name (Score: 0.79, Severity: Medium); Background and foreground colors do not have a sufficient contrast ratio (Score: 0.78, Severity: Medium); Page structure lacks proper landmark regions (Score: 0.42, Severity: High)</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>0.43, Severity: High</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Interactive controls are not keyboard focusable (Score: 0.43, Severity: High) (Score: N/A, Severity: Unknown)</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>2.1.1 Keyboard</t>
+        </is>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>0.98, Severity: Low</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>3.3.2 Labels or Instructions</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>Form elements do not have associated labels (Score: 0.98, Severity: Low) (Score: N/A, Severity: Unknown)</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1563,39 +1656,44 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>First Contentful Paint (Score: 0.9); Largest Contentful Paint (Score: 0.1); Speed Index (Score: 0.94); Max Potential First Input Delay (Score: 0.99); Time to Interactive (Score: 0.51); Image elements do not have explicit `width` and `height` (Score: 0.5); Serve static assets with an efficient cache policy (Score: 0.5); Avoid enormous network payloads (Score: 0.5); Defer offscreen images (Score: 0.5); Properly size images (Score: 0.5); Improve image delivery (Score: 0.5); Render blocking requests (Score: 0.5)</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R16" t="n">
+          <t>ARIA attributes are not used correctly (Score: 0.69, Severity: Medium); Document language is not specified (Score: 0.85, Severity: Low)</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="n">
         <v>0</v>
       </c>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>0.69, Severity: Medium</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>ARIA attributes are not used correctly (Score: 0.69, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>4.1.2 Name, Role, Value</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr"/>
       <c r="W16" t="inlineStr"/>
       <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1634,41 +1732,28 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>First Contentful Paint (Score: 0.61); Speed Index (Score: 0.51); Time to Interactive (Score: 0.18); Ensure text remains visible during webfont load (Score: 0.5); Image elements do not have explicit `width` and `height` (Score: 0.5); Serve static assets with an efficient cache policy (Score: 0.5); Avoid enormous network payloads (Score: 0.5); Avoid an excessive DOM size (Score: 0.5); Properly size images (Score: 0.5); Efficiently encode images (Score: 0.5); Does not use passive listeners to improve scrolling performance (Score: 0.5); Improve image delivery (Score: 0.5)</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0.51</v>
-      </c>
+          <t>Links do not have a discernible name (Score: 0.75, Severity: Medium); Buttons do not have an accessible name (Score: 0.64, Severity: Medium); Background and foreground colors do not have a sufficient contrast ratio (Score: 0.7, Severity: Medium); Page structure lacks proper landmark regions (Score: 0.17, Severity: High)</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
       <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
       <c r="W17" t="inlineStr"/>
       <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1707,41 +1792,44 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>First Contentful Paint (Score: 0.06); Speed Index (Score: 0.53); Max Potential First Input Delay (Score: 0.94); Time to Interactive (Score: 0.09); Total Blocking Time (Score: 0.99); Image elements do not have explicit `width` and `height` (Score: 0.5); Serve static assets with an efficient cache policy (Score: 0.5); Avoid enormous network payloads (Score: 0.5); Avoid an excessive DOM size (Score: 0.5); Minify JavaScript (Score: 0.5); Properly size images (Score: 0.5); Does not use passive listeners to improve scrolling performance (Score: 0.5); Enable text compression (Score: 0.5); Avoid serving legacy JavaScript to modern browsers (Score: 0.5); Improve image delivery (Score: 0.5); Render blocking requests (Score: 0.5)</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0.53</v>
+          <t>Image elements do not have `[alt]` attributes (Score: 0.52, Severity: Medium); Document language is not specified (Score: 0.99, Severity: Low); Interactive controls are not keyboard focusable (Score: 0.75, Severity: Medium)</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>0.75, Severity: Medium</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Interactive controls are not keyboard focusable (Score: 0.75, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>2.1.1 Keyboard</t>
+        </is>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
-      <c r="Q18" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
       <c r="W18" t="inlineStr"/>
       <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1780,41 +1868,44 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>First Contentful Paint (Score: 0.28); Speed Index (Score: 0.2); Max Potential First Input Delay (Score: 0.99); Time to Interactive (Score: 0.09); Ensure text remains visible during webfont load (Score: 0.5); Image elements do not have explicit `width` and `height` (Score: 0.5); Serve static assets with an efficient cache policy (Score: 0.5); Avoid enormous network payloads (Score: 0.5); Defer offscreen images (Score: 0.5); Avoid an excessive DOM size (Score: 0.5); Avoid serving legacy JavaScript to modern browsers (Score: 0.5); Render blocking requests (Score: 0.5)</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0.2</v>
+          <t>Interactive controls are not keyboard focusable (Score: 0.52, Severity: Medium)</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>0.52, Severity: Medium</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Interactive controls are not keyboard focusable (Score: 0.52, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>2.1.1 Keyboard</t>
+        </is>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
-      <c r="Q19" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr"/>
       <c r="V19" t="inlineStr"/>
       <c r="W19" t="inlineStr"/>
       <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1853,41 +1944,44 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>First Contentful Paint (Score: 0.84); Largest Contentful Paint (Score: 0.23); Speed Index (Score: 0.71); Time to Interactive (Score: 0.74); Serve static assets with an efficient cache policy (Score: 0.5); Render blocking requests (Score: 0.5)</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0.71</v>
-      </c>
+          <t>Image elements do not have `[alt]` attributes (Score: 0.71, Severity: Medium); Form elements do not have associated labels (Score: 0.81, Severity: Low)</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
       <c r="P20" t="n">
         <v>0</v>
       </c>
-      <c r="Q20" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr"/>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>0.81, Severity: Low</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>3.3.2 Labels or Instructions</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>Form elements do not have associated labels (Score: 0.81, Severity: Low) (Score: N/A, Severity: Unknown)</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1926,41 +2020,44 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>First Contentful Paint (Score: 0.17); Speed Index (Score: 0.41); Max Potential First Input Delay (Score: 0.38); Time to Interactive (Score: 0.11); Total Blocking Time (Score: 0.89); Serve static assets with an efficient cache policy (Score: 0.5); Defer offscreen images (Score: 0.5); Avoid an excessive DOM size (Score: 0.5); Minify JavaScript (Score: 0.5); Does not use passive listeners to improve scrolling performance (Score: 0.5); Avoid serving legacy JavaScript to modern browsers (Score: 0.5); Improve image delivery (Score: 0.5)</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0.41</v>
-      </c>
+          <t>Links do not have a discernible name (Score: 0.41, Severity: High); Form elements do not have associated labels (Score: 0.52, Severity: Medium); Heading elements are not in a sequentially-descending order (Score: 0.52, Severity: Medium); Buttons do not have an accessible name (Score: 0.52, Severity: Medium)</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
       <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr"/>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>0.52, Severity: Medium</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>3.3.2 Labels or Instructions</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>Form elements do not have associated labels (Score: 0.52, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1999,41 +2096,60 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Speed Index (Score: 0.2); Time to Interactive (Score: 0.13); Serve static assets with an efficient cache policy (Score: 0.5); Avoid serving legacy JavaScript to modern browsers (Score: 0.5); Improve image delivery (Score: 0.5); Document request latency (Score: 0.5)</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0.2</v>
+          <t>Interactive controls are not keyboard focusable (Score: 0.64, Severity: Medium); Form elements do not have associated labels (Score: 0.51, Severity: Medium); Background and foreground colors do not have a sufficient contrast ratio (Score: 0.47, Severity: High)</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>0.64, Severity: Medium</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Interactive controls are not keyboard focusable (Score: 0.64, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>2.1.1 Keyboard</t>
+        </is>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr"/>
-      <c r="W22" t="inlineStr"/>
-      <c r="X22" t="inlineStr"/>
-      <c r="Y22" t="inlineStr"/>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>0.51, Severity: Medium</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>3.3.2 Labels or Instructions</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>Form elements do not have associated labels (Score: 0.51, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2072,39 +2188,44 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>First Contentful Paint (Score: 0.97); Largest Contentful Paint (Score: 0.56); Max Potential First Input Delay (Score: 0.92); Time to Interactive (Score: 0.88); Ensure text remains visible during webfont load (Score: 0.5); Serve static assets with an efficient cache policy (Score: 0.5); Avoid an excessive DOM size (Score: 0.5); Minify JavaScript (Score: 0.5); Serve images in next-gen formats (Score: 0.5); Properly size images (Score: 0.5); Efficiently encode images (Score: 0.5); Improve image delivery (Score: 0.5); Render blocking requests (Score: 0.5)</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="O23" t="inlineStr"/>
+          <t>Document language is not specified (Score: 0.47, Severity: High); Interactive controls are not keyboard focusable (Score: 0.62, Severity: Medium); Heading elements are not in a sequentially-descending order (Score: 0.41, Severity: High); Buttons do not have an accessible name (Score: 0.18, Severity: High)</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>0.62, Severity: Medium</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Interactive controls are not keyboard focusable (Score: 0.62, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>2.1.1 Keyboard</t>
+        </is>
+      </c>
       <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr"/>
       <c r="V23" t="inlineStr"/>
       <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr"/>
-      <c r="Y23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2143,41 +2264,44 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>First Contentful Paint (Score: 0.7); Largest Contentful Paint (Score: 0.02); Speed Index (Score: 0.91); Max Potential First Input Delay (Score: 0.83); Time to Interactive (Score: 0.3); Serve static assets with an efficient cache policy (Score: 0.5); Properly size images (Score: 0.5); Avoid serving legacy JavaScript to modern browsers (Score: 0.5); Improve image delivery (Score: 0.5)</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0.91</v>
-      </c>
+          <t>ARIA attributes are not used correctly (Score: 0.53, Severity: Medium); Document language is not specified (Score: 0.33, Severity: High); Buttons do not have an accessible name (Score: 0.21, Severity: High); Background and foreground colors do not have a sufficient contrast ratio (Score: 0.86, Severity: Low)</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
       <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0</v>
-      </c>
-      <c r="R24" t="n">
-        <v>0</v>
-      </c>
-      <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>0.53, Severity: Medium</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>ARIA attributes are not used correctly (Score: 0.53, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>4.1.2 Name, Role, Value</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
       <c r="W24" t="inlineStr"/>
       <c r="X24" t="inlineStr"/>
-      <c r="Y24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2208,23 +2332,60 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Image elements do not have `[alt]` attributes (Score: 0.52, Severity: Medium); ARIA attributes are not used correctly (Score: 0.73, Severity: Medium); Form elements do not have associated labels (Score: 0.17, Severity: High); Background and foreground colors do not have a sufficient contrast ratio (Score: 0.2, Severity: High); Page structure lacks proper landmark regions (Score: 0.95, Severity: Low)</t>
+        </is>
+      </c>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="inlineStr"/>
-      <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr"/>
-      <c r="V25" t="inlineStr"/>
-      <c r="W25" t="inlineStr"/>
-      <c r="X25" t="inlineStr"/>
-      <c r="Y25" t="inlineStr"/>
+      <c r="P25" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>0.73, Severity: Medium</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>ARIA attributes are not used correctly (Score: 0.73, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>4.1.2 Name, Role, Value</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>0.17, Severity: High</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>3.3.2 Labels or Instructions</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>Form elements do not have associated labels (Score: 0.17, Severity: High) (Score: N/A, Severity: Unknown)</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2263,39 +2424,60 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>First Contentful Paint (Score: 0.45); Speed Index (Score: 0.26); Time to Interactive (Score: 0.16); Image elements do not have explicit `width` and `height` (Score: 0.5); Serve static assets with an efficient cache policy (Score: 0.5); Avoid enormous network payloads (Score: 0.5); Defer offscreen images (Score: 0.5); Avoid an excessive DOM size (Score: 0.5); Efficiently encode images (Score: 0.5); Does not use passive listeners to improve scrolling performance (Score: 0.5); Improve image delivery (Score: 0.5); Render blocking requests (Score: 0.5)</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="inlineStr"/>
-      <c r="T26" t="inlineStr"/>
+          <t>ARIA attributes are not used correctly (Score: 0.51, Severity: Medium); Interactive controls are not keyboard focusable (Score: 0.61, Severity: Medium); Background and foreground colors do not have a sufficient contrast ratio (Score: 0.34, Severity: High)</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>0.61, Severity: Medium</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Interactive controls are not keyboard focusable (Score: 0.61, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>2.1.1 Keyboard</t>
+        </is>
+      </c>
+      <c r="P26" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>0.51, Severity: Medium</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>ARIA attributes are not used correctly (Score: 0.51, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>4.1.2 Name, Role, Value</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr"/>
       <c r="W26" t="inlineStr"/>
       <c r="X26" t="inlineStr"/>
-      <c r="Y26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2334,41 +2516,28 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>First Contentful Paint (Score: 0.01); Speed Index (Score: 0.3); Max Potential First Input Delay (Score: 0.99); Time to Interactive (Score: 0.19); Ensure text remains visible during webfont load (Score: 0.5); Image elements do not have explicit `width` and `height` (Score: 0.5); Serve static assets with an efficient cache policy (Score: 0.5); Avoid an excessive DOM size (Score: 0.5); Properly size images (Score: 0.5)</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0.3</v>
-      </c>
+          <t>Image elements do not have `[alt]` attributes (Score: 0.54, Severity: Medium)</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
       <c r="P27" t="n">
         <v>0</v>
       </c>
-      <c r="Q27" t="n">
-        <v>0</v>
-      </c>
-      <c r="R27" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr"/>
       <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
-      <c r="Y27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2407,43 +2576,44 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>First Contentful Paint (Score: 0.04); Speed Index (Score: 0.49); Max Potential First Input Delay (Score: 0.98); Time to Interactive (Score: 0.23); Ensure text remains visible during webfont load (Score: 0.5); Image elements do not have explicit `width` and `height` (Score: 0.5); Serve static assets with an efficient cache policy (Score: 0.5); Avoid an excessive DOM size (Score: 0.5); Avoid serving legacy JavaScript to modern browsers (Score: 0.5); Render blocking requests (Score: 0.5)</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0.49</v>
-      </c>
+          <t>Form elements do not have associated labels (Score: 0.92, Severity: Low); Background and foreground colors do not have a sufficient contrast ratio (Score: 0.47, Severity: High)</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
       <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="inlineStr"/>
-      <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="inlineStr"/>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>0.92, Severity: Low</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>3.3.2 Labels or Instructions</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>Form elements do not have associated labels (Score: 0.92, Severity: Low) (Score: N/A, Severity: Unknown)</t>
+        </is>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2482,41 +2652,28 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>First Contentful Paint (Score: 0.65); Largest Contentful Paint (Score: 0.19); Speed Index (Score: 0.86); Time to Interactive (Score: 0.7); Ensure text remains visible during webfont load (Score: 0.5); Image elements do not have explicit `width` and `height` (Score: 0.5); Serve static assets with an efficient cache policy (Score: 0.5); Efficiently encode images (Score: 0.5); Avoid serving legacy JavaScript to modern browsers (Score: 0.5); Improve image delivery (Score: 0.5)</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0.86</v>
-      </c>
+          <t>Document language is not specified (Score: 0.53, Severity: Medium); Page structure lacks proper landmark regions (Score: 0.33, Severity: High)</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
       <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr"/>
       <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2555,39 +2712,44 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>First Contentful Paint (Score: 0.65); Largest Contentful Paint (Score: 0.04); Speed Index (Score: 0.77); Time to Interactive (Score: 0.49); Image elements do not have explicit `width` and `height` (Score: 0.5); Serve static assets with an efficient cache policy (Score: 0.5); Avoid serving legacy JavaScript to modern browsers (Score: 0.5)</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0.77</v>
+          <t>Image elements do not have `[alt]` attributes (Score: 0.81, Severity: Low); Interactive controls are not keyboard focusable (Score: 0.41, Severity: High); Heading elements are not in a sequentially-descending order (Score: 0.85, Severity: Low); Buttons do not have an accessible name (Score: 0.66, Severity: Medium); Page structure lacks proper landmark regions (Score: 0.4, Severity: High)</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>0.41, Severity: High</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Interactive controls are not keyboard focusable (Score: 0.41, Severity: High) (Score: N/A, Severity: Unknown)</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>2.1.1 Keyboard</t>
+        </is>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="n">
-        <v>0</v>
-      </c>
+      <c r="R30" t="inlineStr"/>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr"/>
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
-      <c r="Y30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2626,41 +2788,60 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>First Contentful Paint (Score: 0.06); Speed Index (Score: 0.49); Time to Interactive (Score: 0.27); Image elements do not have explicit `width` and `height` (Score: 0.5); Serve static assets with an efficient cache policy (Score: 0.5); Avoid an excessive DOM size (Score: 0.5); Reduce unused JavaScript (Score: 0.5); Does not use passive listeners to improve scrolling performance (Score: 0.5); Render blocking requests (Score: 0.5)</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0.49</v>
-      </c>
+          <t>ARIA attributes are not used correctly (Score: 0.76, Severity: Medium); Document language is not specified (Score: 0.66, Severity: Medium); Form elements do not have associated labels (Score: 0.94, Severity: Low); Heading elements are not in a sequentially-descending order (Score: 0.44, Severity: High)</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
       <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="S31" t="inlineStr"/>
-      <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
-      <c r="W31" t="inlineStr"/>
-      <c r="X31" t="inlineStr"/>
-      <c r="Y31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>0.76, Severity: Medium</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>ARIA attributes are not used correctly (Score: 0.76, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>4.1.2 Name, Role, Value</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>0.94, Severity: Low</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>3.3.2 Labels or Instructions</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>Form elements do not have associated labels (Score: 0.94, Severity: Low) (Score: N/A, Severity: Unknown)</t>
+        </is>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2691,23 +2872,44 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>ARIA attributes are not used correctly (Score: 0.94, Severity: Low); Links do not have a discernible name (Score: 0.86, Severity: Low); Background and foreground colors do not have a sufficient contrast ratio (Score: 0.92, Severity: Low)</t>
+        </is>
+      </c>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr"/>
-      <c r="T32" t="inlineStr"/>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>0.94, Severity: Low</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>ARIA attributes are not used correctly (Score: 0.94, Severity: Low) (Score: N/A, Severity: Unknown)</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>4.1.2 Name, Role, Value</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr"/>
       <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr"/>
-      <c r="Y32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2746,41 +2948,60 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>First Contentful Paint (Score: 0.57); Speed Index (Score: 0.46); Max Potential First Input Delay (Score: 0.99); Ensure text remains visible during webfont load (Score: 0.5); Image elements do not have explicit `width` and `height` (Score: 0.5); Serve static assets with an efficient cache policy (Score: 0.5); Avoid enormous network payloads (Score: 0.5); Reduce unused CSS (Score: 0.5); Serve images in next-gen formats (Score: 0.5); Efficiently encode images (Score: 0.5); Improve image delivery (Score: 0.5)</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0.46</v>
+          <t>Image elements do not have `[alt]` attributes (Score: 0.91, Severity: Low); ARIA attributes are not used correctly (Score: 0.1, Severity: High); Interactive controls are not keyboard focusable (Score: 0.85, Severity: Low); Heading elements are not in a sequentially-descending order (Score: 0.83, Severity: Low)</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>0.85, Severity: Low</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Interactive controls are not keyboard focusable (Score: 0.85, Severity: Low) (Score: N/A, Severity: Unknown)</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>2.1.1 Keyboard</t>
+        </is>
       </c>
       <c r="P33" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>0</v>
-      </c>
-      <c r="R33" t="n">
-        <v>0</v>
-      </c>
-      <c r="S33" t="inlineStr"/>
-      <c r="T33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>0.1, Severity: High</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>ARIA attributes are not used correctly (Score: 0.1, Severity: High) (Score: N/A, Severity: Unknown)</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>4.1.2 Name, Role, Value</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr"/>
       <c r="W33" t="inlineStr"/>
       <c r="X33" t="inlineStr"/>
-      <c r="Y33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2819,41 +3040,60 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>First Contentful Paint (Score: 0.79); Largest Contentful Paint (Score: 0.13); Speed Index (Score: 0.69); Time to Interactive (Score: 0.63); Ensure text remains visible during webfont load (Score: 0.5); Serve static assets with an efficient cache policy (Score: 0.5); Efficiently encode images (Score: 0.5); Avoid serving legacy JavaScript to modern browsers (Score: 0.5); Improve image delivery (Score: 0.5)</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0.6899999999999999</v>
-      </c>
+          <t>ARIA attributes are not used correctly (Score: 0.83, Severity: Low); Document language is not specified (Score: 0.27, Severity: High); Form elements do not have associated labels (Score: 0.19, Severity: High); Buttons do not have an accessible name (Score: 0.96, Severity: Low); Background and foreground colors do not have a sufficient contrast ratio (Score: 0.69, Severity: Medium)</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
       <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="inlineStr"/>
-      <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
-      <c r="W34" t="inlineStr"/>
-      <c r="X34" t="inlineStr"/>
-      <c r="Y34" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>0.83, Severity: Low</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>ARIA attributes are not used correctly (Score: 0.83, Severity: Low) (Score: N/A, Severity: Unknown)</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>4.1.2 Name, Role, Value</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>0.19, Severity: High</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>3.3.2 Labels or Instructions</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>Form elements do not have associated labels (Score: 0.19, Severity: High) (Score: N/A, Severity: Unknown)</t>
+        </is>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2892,41 +3132,28 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>First Contentful Paint (Score: 0.59); Largest Contentful Paint (Score: 0.3); Speed Index (Score: 0.79); Time to Interactive (Score: 0.78); Ensure text remains visible during webfont load (Score: 0.5); Serve static assets with an efficient cache policy (Score: 0.5); Avoid an excessive DOM size (Score: 0.5); Reduce unused CSS (Score: 0.5); Minify JavaScript (Score: 0.5); Reduce unused JavaScript (Score: 0.5); Serve images in next-gen formats (Score: 0.5); Properly size images (Score: 0.5); Efficiently encode images (Score: 0.5); Does not use passive listeners to improve scrolling performance (Score: 0.5); Avoid serving legacy JavaScript to modern browsers (Score: 0.5); Improve image delivery (Score: 0.5)</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0.79</v>
-      </c>
+          <t>Background and foreground colors do not have a sufficient contrast ratio (Score: 0.14, Severity: High)</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
       <c r="P35" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr"/>
       <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
-      <c r="Y35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2965,41 +3192,60 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Speed Index (Score: 0.23); Max Potential First Input Delay (Score: 0.92); Time to Interactive (Score: 0.09); Total Blocking Time (Score: 0.98); Ensure text remains visible during webfont load (Score: 0.5); Image elements do not have explicit `width` and `height` (Score: 0.5); Serve static assets with an efficient cache policy (Score: 0.5); Properly size images (Score: 0.5); Avoid serving legacy JavaScript to modern browsers (Score: 0.5); Improve image delivery (Score: 0.5)</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0.23</v>
+          <t>Interactive controls are not keyboard focusable (Score: 0.89, Severity: Low); Form elements do not have associated labels (Score: 0.48, Severity: High)</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>0.89, Severity: Low</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>Interactive controls are not keyboard focusable (Score: 0.89, Severity: Low) (Score: N/A, Severity: Unknown)</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>2.1.1 Keyboard</t>
+        </is>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>0</v>
-      </c>
-      <c r="R36" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr"/>
-      <c r="W36" t="inlineStr"/>
-      <c r="X36" t="inlineStr"/>
-      <c r="Y36" t="inlineStr"/>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>0.48, Severity: High</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>3.3.2 Labels or Instructions</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>Form elements do not have associated labels (Score: 0.48, Severity: High) (Score: N/A, Severity: Unknown)</t>
+        </is>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3030,14 +3276,20 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Heading elements are not in a sequentially-descending order (Score: 0.68, Severity: Medium)</t>
+        </is>
+      </c>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr"/>
@@ -3046,7 +3298,6 @@
       <c r="V37" t="inlineStr"/>
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
-      <c r="Y37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3085,41 +3336,28 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>First Contentful Paint (Score: 0.01); Speed Index (Score: 0.27); Max Potential First Input Delay (Score: 0.99); Time to Interactive (Score: 0.24); Ensure text remains visible during webfont load (Score: 0.5); Serve static assets with an efficient cache policy (Score: 0.5); Defer offscreen images (Score: 0.5); Avoid an excessive DOM size (Score: 0.5); Reduce unused CSS (Score: 0.5); Serve images in next-gen formats (Score: 0.5); Properly size images (Score: 0.5); Avoid serving legacy JavaScript to modern browsers (Score: 0.5); Improve image delivery (Score: 0.5)</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0.27</v>
-      </c>
+          <t>Links do not have a discernible name (Score: 0.92, Severity: Low); Background and foreground colors do not have a sufficient contrast ratio (Score: 0.26, Severity: High); Page structure lacks proper landmark regions (Score: 0.67, Severity: Medium)</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
       <c r="P38" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr"/>
       <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
-      <c r="Y38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3150,23 +3388,44 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Image elements do not have `[alt]` attributes (Score: 0.64, Severity: Medium); ARIA attributes are not used correctly (Score: 0.43, Severity: High); Heading elements are not in a sequentially-descending order (Score: 0.55, Severity: Medium); Buttons do not have an accessible name (Score: 0.56, Severity: Medium); Page structure lacks proper landmark regions (Score: 0.2, Severity: High)</t>
+        </is>
+      </c>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="inlineStr"/>
-      <c r="T39" t="inlineStr"/>
+      <c r="P39" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>0.43, Severity: High</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>ARIA attributes are not used correctly (Score: 0.43, Severity: High) (Score: N/A, Severity: Unknown)</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>4.1.2 Name, Role, Value</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr"/>
       <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
-      <c r="Y39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3205,41 +3464,60 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>First Contentful Paint (Score: 0.04); Speed Index (Score: 0.4); Max Potential First Input Delay (Score: 0.95); Time to Interactive (Score: 0.08); Total Blocking Time (Score: 0.99); Ensure text remains visible during webfont load (Score: 0.5); Image elements do not have explicit `width` and `height` (Score: 0.5); Serve static assets with an efficient cache policy (Score: 0.5); Avoid enormous network payloads (Score: 0.5); Defer offscreen images (Score: 0.5); Efficiently encode images (Score: 0.5); Avoid serving legacy JavaScript to modern browsers (Score: 0.5)</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0.4</v>
+          <t>Image elements do not have `[alt]` attributes (Score: 0.19, Severity: High); Interactive controls are not keyboard focusable (Score: 0.64, Severity: Medium); Form elements do not have associated labels (Score: 0.77, Severity: Medium); Page structure lacks proper landmark regions (Score: 0.31, Severity: High)</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>0.64, Severity: Medium</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>Interactive controls are not keyboard focusable (Score: 0.64, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>2.1.1 Keyboard</t>
+        </is>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr"/>
-      <c r="W40" t="inlineStr"/>
-      <c r="X40" t="inlineStr"/>
-      <c r="Y40" t="inlineStr"/>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>0.77, Severity: Medium</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>3.3.2 Labels or Instructions</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>Form elements do not have associated labels (Score: 0.77, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
+        </is>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3278,41 +3556,44 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>First Contentful Paint (Score: 0.17); Speed Index (Score: 0.2); Ensure text remains visible during webfont load (Score: 0.5); Image elements do not have explicit `width` and `height` (Score: 0.5); Serve static assets with an efficient cache policy (Score: 0.5); Avoid enormous network payloads (Score: 0.5); Defer offscreen images (Score: 0.5); Minify JavaScript (Score: 0.5); Efficiently encode images (Score: 0.5); Document request latency (Score: 0.5)</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0.2</v>
-      </c>
+          <t>Document language is not specified (Score: 0.76, Severity: Medium); Form elements do not have associated labels (Score: 0.11, Severity: High); Heading elements are not in a sequentially-descending order (Score: 0.76, Severity: Medium); Background and foreground colors do not have a sufficient contrast ratio (Score: 0.96, Severity: Low); Page structure lacks proper landmark regions (Score: 0.47, Severity: High)</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
       <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
-      <c r="U41" t="inlineStr"/>
-      <c r="V41" t="inlineStr"/>
-      <c r="W41" t="inlineStr"/>
-      <c r="X41" t="inlineStr"/>
-      <c r="Y41" t="inlineStr"/>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>0.11, Severity: High</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>3.3.2 Labels or Instructions</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>Form elements do not have associated labels (Score: 0.11, Severity: High) (Score: N/A, Severity: Unknown)</t>
+        </is>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -3351,41 +3632,44 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>First Contentful Paint (Score: 0.02); Speed Index (Score: 0.36); Max Potential First Input Delay (Score: 0.97); Time to Interactive (Score: 0.04); Total Blocking Time (Score: 0.97); Ensure text remains visible during webfont load (Score: 0.5); Image elements do not have explicit `width` and `height` (Score: 0.5); Serve static assets with an efficient cache policy (Score: 0.5); Avoid enormous network payloads (Score: 0.5); Does not use passive listeners to improve scrolling performance (Score: 0.5); Avoid serving legacy JavaScript to modern browsers (Score: 0.5); Improve image delivery (Score: 0.5)</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0.36</v>
-      </c>
+          <t>Image elements do not have `[alt]` attributes (Score: 0.98, Severity: Low); Form elements do not have associated labels (Score: 0.11, Severity: High)</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
       <c r="P42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>0</v>
-      </c>
-      <c r="R42" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr"/>
-      <c r="W42" t="inlineStr"/>
-      <c r="X42" t="inlineStr"/>
-      <c r="Y42" t="inlineStr"/>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>0.11, Severity: High</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>3.3.2 Labels or Instructions</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>Form elements do not have associated labels (Score: 0.11, Severity: High) (Score: N/A, Severity: Unknown)</t>
+        </is>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -3424,41 +3708,60 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>First Contentful Paint (Score: 0.43); Largest Contentful Paint (Score: 0.01); Speed Index (Score: 0.28); Max Potential First Input Delay (Score: 0.99); Time to Interactive (Score: 0.31); Serve static assets with an efficient cache policy (Score: 0.5); Defer offscreen images (Score: 0.5); Improve image delivery (Score: 0.5); Render blocking requests (Score: 0.5)</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0.28</v>
+          <t>Image elements do not have `[alt]` attributes (Score: 0.72, Severity: Medium); Interactive controls are not keyboard focusable (Score: 0.69, Severity: Medium); Form elements do not have associated labels (Score: 0.6, Severity: Medium); Buttons do not have an accessible name (Score: 0.81, Severity: Low); Background and foreground colors do not have a sufficient contrast ratio (Score: 0.39, Severity: High)</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>0.69, Severity: Medium</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>Interactive controls are not keyboard focusable (Score: 0.69, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>2.1.1 Keyboard</t>
+        </is>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
-      <c r="U43" t="inlineStr"/>
-      <c r="V43" t="inlineStr"/>
-      <c r="W43" t="inlineStr"/>
-      <c r="X43" t="inlineStr"/>
-      <c r="Y43" t="inlineStr"/>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>0.6, Severity: Medium</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>3.3.2 Labels or Instructions</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>Form elements do not have associated labels (Score: 0.6, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
+        </is>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3497,41 +3800,44 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>First Contentful Paint (Score: 0.36); Largest Contentful Paint (Score: 0.02); Speed Index (Score: 0.49); Max Potential First Input Delay (Score: 0.98); Time to Interactive (Score: 0.38); Ensure text remains visible during webfont load (Score: 0.5); Image elements do not have explicit `width` and `height` (Score: 0.5); Serve static assets with an efficient cache policy (Score: 0.5); Serve images in next-gen formats (Score: 0.5); Does not use passive listeners to improve scrolling performance (Score: 0.5); Avoid serving legacy JavaScript to modern browsers (Score: 0.5); Improve image delivery (Score: 0.5); Render blocking requests (Score: 0.5)</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0.49</v>
-      </c>
+          <t>Image elements do not have `[alt]` attributes (Score: 0.29, Severity: High); Links do not have a discernible name (Score: 0.46, Severity: High); Form elements do not have associated labels (Score: 0.35, Severity: High); Heading elements are not in a sequentially-descending order (Score: 0.27, Severity: High)</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
       <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr"/>
-      <c r="V44" t="inlineStr"/>
-      <c r="W44" t="inlineStr"/>
-      <c r="X44" t="inlineStr"/>
-      <c r="Y44" t="inlineStr"/>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>0.35, Severity: High</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>3.3.2 Labels or Instructions</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>Form elements do not have associated labels (Score: 0.35, Severity: High) (Score: N/A, Severity: Unknown)</t>
+        </is>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3570,41 +3876,44 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>First Contentful Paint (Score: 0.51); Largest Contentful Paint (Score: 0.08); Speed Index (Score: 0.89); Time to Interactive (Score: 0.56); Image elements do not have explicit `width` and `height` (Score: 0.5); Serve static assets with an efficient cache policy (Score: 0.5); Reduce unused CSS (Score: 0.5); Serve images in next-gen formats (Score: 0.5); Properly size images (Score: 0.5); Does not use passive listeners to improve scrolling performance (Score: 0.5); Enable text compression (Score: 0.5); Avoid serving legacy JavaScript to modern browsers (Score: 0.5); Improve image delivery (Score: 0.5)</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0.89</v>
+          <t>Interactive controls are not keyboard focusable (Score: 0.65, Severity: Medium); Page structure lacks proper landmark regions (Score: 0.92, Severity: Low)</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>0.65, Severity: Medium</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>Interactive controls are not keyboard focusable (Score: 0.65, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>2.1.1 Keyboard</t>
+        </is>
       </c>
       <c r="P45" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q45" t="n">
         <v>0</v>
       </c>
-      <c r="R45" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr"/>
       <c r="W45" t="inlineStr"/>
       <c r="X45" t="inlineStr"/>
-      <c r="Y45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3643,41 +3952,44 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>First Contentful Paint (Score: 0.82); Largest Contentful Paint (Score: 0.01); Speed Index (Score: 0.77); Max Potential First Input Delay (Score: 0.98); Time to Interactive (Score: 0.31); Image elements do not have explicit `width` and `height` (Score: 0.5); Serve static assets with an efficient cache policy (Score: 0.5); Defer offscreen images (Score: 0.5); Avoid an excessive DOM size (Score: 0.5); Minify JavaScript (Score: 0.5); Properly size images (Score: 0.5); Does not use passive listeners to improve scrolling performance (Score: 0.5); Enable text compression (Score: 0.5); Improve image delivery (Score: 0.5)</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0.77</v>
-      </c>
+          <t>Image elements do not have `[alt]` attributes (Score: 0.89, Severity: Low); ARIA attributes are not used correctly (Score: 0.71, Severity: Medium); Buttons do not have an accessible name (Score: 0.31, Severity: High)</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
       <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="inlineStr"/>
-      <c r="T46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>0.71, Severity: Medium</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>ARIA attributes are not used correctly (Score: 0.71, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>4.1.2 Name, Role, Value</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr"/>
       <c r="W46" t="inlineStr"/>
       <c r="X46" t="inlineStr"/>
-      <c r="Y46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3716,41 +4028,44 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>First Contentful Paint (Score: 0.33); Speed Index (Score: 0.62); Serve static assets with an efficient cache policy (Score: 0.5); Avoid enormous network payloads (Score: 0.5); Efficiently encode images (Score: 0.5); Enable text compression (Score: 0.5); Avoid serving legacy JavaScript to modern browsers (Score: 0.5)</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>0</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="O47" t="n">
-        <v>0.62</v>
+          <t>Document language is not specified (Score: 0.87, Severity: Low); Interactive controls are not keyboard focusable (Score: 0.23, Severity: High)</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>0.23, Severity: High</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>Interactive controls are not keyboard focusable (Score: 0.23, Severity: High) (Score: N/A, Severity: Unknown)</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>2.1.1 Keyboard</t>
+        </is>
       </c>
       <c r="P47" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>0</v>
-      </c>
-      <c r="R47" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr"/>
       <c r="W47" t="inlineStr"/>
       <c r="X47" t="inlineStr"/>
-      <c r="Y47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3789,39 +4104,44 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>First Contentful Paint (Score: 0.88); Largest Contentful Paint (Score: 0.3); Speed Index (Score: 0.97); Max Potential First Input Delay (Score: 0.99); Time to Interactive (Score: 0.78); Ensure text remains visible during webfont load (Score: 0.5); Image elements do not have explicit `width` and `height` (Score: 0.5); Serve static assets with an efficient cache policy (Score: 0.5); Avoid enormous network payloads (Score: 0.5); Avoid an excessive DOM size (Score: 0.5); Minify JavaScript (Score: 0.5); Improve image delivery (Score: 0.5); Render blocking requests (Score: 0.5)</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="N48" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="O48" t="n">
-        <v>0.97</v>
-      </c>
+          <t>ARIA attributes are not used correctly (Score: 0.12, Severity: High); Page structure lacks proper landmark regions (Score: 0.36, Severity: High)</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
       <c r="P48" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="inlineStr"/>
-      <c r="T48" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>0.12, Severity: High</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>ARIA attributes are not used correctly (Score: 0.12, Severity: High) (Score: N/A, Severity: Unknown)</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>4.1.2 Name, Role, Value</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr"/>
       <c r="W48" t="inlineStr"/>
       <c r="X48" t="inlineStr"/>
-      <c r="Y48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3860,27 +4180,21 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>First Contentful Paint (Score: 0.93); Largest Contentful Paint (Score: 0.06); Time to Interactive (Score: 0.54); Ensure text remains visible during webfont load (Score: 0.5); Image elements do not have explicit `width` and `height` (Score: 0.5); Serve static assets with an efficient cache policy (Score: 0.5); Does not use passive listeners to improve scrolling performance (Score: 0.5)</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="N49" t="n">
-        <v>0.93</v>
-      </c>
+          <t>Image elements do not have `[alt]` attributes (Score: 0.38, Severity: High); Document language is not specified (Score: 0.15, Severity: High); Heading elements are not in a sequentially-descending order (Score: 0.57, Severity: Medium)</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="n">
-        <v>0</v>
-      </c>
+      <c r="P49" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr"/>
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
@@ -3888,7 +4202,6 @@
       <c r="V49" t="inlineStr"/>
       <c r="W49" t="inlineStr"/>
       <c r="X49" t="inlineStr"/>
-      <c r="Y49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3927,41 +4240,60 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>First Contentful Paint (Score: 0.15); Largest Contentful Paint (Score: 0.03); Speed Index (Score: 0.72); Max Potential First Input Delay (Score: 0.47); Time to Interactive (Score: 0.2); Total Blocking Time (Score: 0.74); Serve static assets with an efficient cache policy (Score: 0.5); Avoid serving legacy JavaScript to modern browsers (Score: 0.5)</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="N50" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="O50" t="n">
-        <v>0.72</v>
-      </c>
+          <t>Image elements do not have `[alt]` attributes (Score: 0.1, Severity: High); ARIA attributes are not used correctly (Score: 0.93, Severity: Low); Form elements do not have associated labels (Score: 0.44, Severity: High); Buttons do not have an accessible name (Score: 0.99, Severity: Low)</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
       <c r="P50" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>0</v>
-      </c>
-      <c r="R50" t="n">
-        <v>0</v>
-      </c>
-      <c r="S50" t="inlineStr"/>
-      <c r="T50" t="inlineStr"/>
-      <c r="U50" t="inlineStr"/>
-      <c r="V50" t="inlineStr"/>
-      <c r="W50" t="inlineStr"/>
-      <c r="X50" t="inlineStr"/>
-      <c r="Y50" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>0.93, Severity: Low</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>ARIA attributes are not used correctly (Score: 0.93, Severity: Low) (Score: N/A, Severity: Unknown)</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>4.1.2 Name, Role, Value</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>0.44, Severity: High</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>3.3.2 Labels or Instructions</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>Form elements do not have associated labels (Score: 0.44, Severity: High) (Score: N/A, Severity: Unknown)</t>
+        </is>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -4004,35 +4336,56 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>First Contentful Paint (Score: 0.68); Largest Contentful Paint (Score: 0.89); Speed Index (Score: 0.97); Time to Interactive (Score: 0.98); Render blocking requests (Score: 0.5)</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="N51" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="O51" t="n">
-        <v>0.97</v>
+          <t>ARIA attributes are not used correctly (Score: 0.15, Severity: High); Document language is not specified (Score: 0.41, Severity: High); Links do not have a discernible name (Score: 0.28, Severity: High); Interactive controls are not keyboard focusable (Score: 0.7, Severity: Medium); Buttons do not have an accessible name (Score: 0.86, Severity: Low)</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>0.7, Severity: Medium</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>Interactive controls are not keyboard focusable (Score: 0.7, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>2.1.1 Keyboard</t>
+        </is>
       </c>
       <c r="P51" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="inlineStr"/>
-      <c r="T51" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>0.15, Severity: High</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>ARIA attributes are not used correctly (Score: 0.15, Severity: High) (Score: N/A, Severity: Unknown)</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>4.1.2 Name, Role, Value</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr"/>
       <c r="W51" t="inlineStr"/>
       <c r="X51" t="inlineStr"/>
-      <c r="Y51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -4071,41 +4424,60 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>First Contentful Paint (Score: 0.68); Largest Contentful Paint (Score: 0.72); Speed Index (Score: 0.44); Time to Interactive (Score: 0.94); Ensure text remains visible during webfont load (Score: 0.5); Image elements do not have explicit `width` and `height` (Score: 0.5); Serve static assets with an efficient cache policy (Score: 0.5); Avoid an excessive DOM size (Score: 0.5); Reduce unused JavaScript (Score: 0.5); Avoid serving legacy JavaScript to modern browsers (Score: 0.5)</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="N52" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="O52" t="n">
-        <v>0.44</v>
+          <t>ARIA attributes are not used correctly (Score: 0.88, Severity: Low); Interactive controls are not keyboard focusable (Score: 0.7, Severity: Medium); Heading elements are not in a sequentially-descending order (Score: 0.55, Severity: Medium); Page structure lacks proper landmark regions (Score: 0.61, Severity: Medium)</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>0.7, Severity: Medium</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>Interactive controls are not keyboard focusable (Score: 0.7, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>2.1.1 Keyboard</t>
+        </is>
       </c>
       <c r="P52" t="n">
         <v>0</v>
       </c>
-      <c r="Q52" t="n">
-        <v>0</v>
-      </c>
-      <c r="R52" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="S52" t="inlineStr"/>
-      <c r="T52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>0.88, Severity: Low</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>ARIA attributes are not used correctly (Score: 0.88, Severity: Low) (Score: N/A, Severity: Unknown)</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>4.1.2 Name, Role, Value</t>
+        </is>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr"/>
       <c r="W52" t="inlineStr"/>
       <c r="X52" t="inlineStr"/>
-      <c r="Y52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -4144,41 +4516,44 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>First Contentful Paint (Score: 0.44); Largest Contentful Paint (Score: 0.04); Speed Index (Score: 0.77); Max Potential First Input Delay (Score: 0.98); Time to Interactive (Score: 0.48); Serve static assets with an efficient cache policy (Score: 0.5); Avoid serving legacy JavaScript to modern browsers (Score: 0.5); Render blocking requests (Score: 0.5)</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="N53" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="O53" t="n">
-        <v>0.77</v>
-      </c>
+          <t>ARIA attributes are not used correctly (Score: 0.31, Severity: High); Buttons do not have an accessible name (Score: 0.42, Severity: High)</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
       <c r="P53" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R53" t="n">
-        <v>0</v>
-      </c>
-      <c r="S53" t="inlineStr"/>
-      <c r="T53" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>0.31, Severity: High</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>ARIA attributes are not used correctly (Score: 0.31, Severity: High) (Score: N/A, Severity: Unknown)</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>4.1.2 Name, Role, Value</t>
+        </is>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
       <c r="U53" t="inlineStr"/>
       <c r="V53" t="inlineStr"/>
       <c r="W53" t="inlineStr"/>
       <c r="X53" t="inlineStr"/>
-      <c r="Y53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -4217,39 +4592,28 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>First Contentful Paint (Score: 0.87); Largest Contentful Paint (Score: 0.96); Speed Index (Score: 0.7); Time to Interactive (Score: 0.79); Image elements do not have explicit `width` and `height` (Score: 0.5); Serve static assets with an efficient cache policy (Score: 0.5); Avoid an excessive DOM size (Score: 0.5); Reduce unused JavaScript (Score: 0.5); Avoid serving legacy JavaScript to modern browsers (Score: 0.5)</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="N54" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="O54" t="n">
-        <v>0.7</v>
-      </c>
+          <t>Image elements do not have `[alt]` attributes (Score: 0.37, Severity: High); Document language is not specified (Score: 0.25, Severity: High); Heading elements are not in a sequentially-descending order (Score: 0.41, Severity: High); Buttons do not have an accessible name (Score: 0.64, Severity: Medium); Background and foreground colors do not have a sufficient contrast ratio (Score: 0.43, Severity: High)</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
       <c r="P54" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="R54" t="inlineStr"/>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
       <c r="V54" t="inlineStr"/>
       <c r="W54" t="inlineStr"/>
       <c r="X54" t="inlineStr"/>
-      <c r="Y54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -4288,41 +4652,60 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>First Contentful Paint (Score: 0.85); Largest Contentful Paint (Score: 0.57); Speed Index (Score: 0.99); Time to Interactive (Score: 0.9); Image elements do not have explicit `width` and `height` (Score: 0.5); Serve static assets with an efficient cache policy (Score: 0.5); Reduce unused JavaScript (Score: 0.5); Avoid serving legacy JavaScript to modern browsers (Score: 0.5); Improve image delivery (Score: 0.5)</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="N55" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="O55" t="n">
-        <v>0.99</v>
+          <t>Image elements do not have `[alt]` attributes (Score: 0.25, Severity: High); Document language is not specified (Score: 0.72, Severity: Medium); Interactive controls are not keyboard focusable (Score: 0.99, Severity: Low); Form elements do not have associated labels (Score: 0.8, Severity: Low); Background and foreground colors do not have a sufficient contrast ratio (Score: 0.84, Severity: Low)</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>0.99, Severity: Low</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>Interactive controls are not keyboard focusable (Score: 0.99, Severity: Low) (Score: N/A, Severity: Unknown)</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>2.1.1 Keyboard</t>
+        </is>
       </c>
       <c r="P55" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>0</v>
-      </c>
-      <c r="R55" t="n">
-        <v>0.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr"/>
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
-      <c r="U55" t="inlineStr"/>
-      <c r="V55" t="inlineStr"/>
-      <c r="W55" t="inlineStr"/>
-      <c r="X55" t="inlineStr"/>
-      <c r="Y55" t="inlineStr"/>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>0.8, Severity: Low</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>3.3.2 Labels or Instructions</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>Form elements do not have associated labels (Score: 0.8, Severity: Low) (Score: N/A, Severity: Unknown)</t>
+        </is>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -4361,41 +4744,44 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>First Contentful Paint (Score: 0.49); Speed Index (Score: 0.18); Max Potential First Input Delay (Score: 0.56); Time to Interactive (Score: 0.05); Total Blocking Time (Score: 0.99); Serve static assets with an efficient cache policy (Score: 0.5); Avoid enormous network payloads (Score: 0.5); Defer offscreen images (Score: 0.5); Serve images in next-gen formats (Score: 0.5); Avoid serving legacy JavaScript to modern browsers (Score: 0.5); Render blocking requests (Score: 0.5)</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>0</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="N56" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="O56" t="n">
-        <v>0.18</v>
-      </c>
+          <t>ARIA attributes are not used correctly (Score: 0.92, Severity: Low); Links do not have a discernible name (Score: 0.48, Severity: High); Buttons do not have an accessible name (Score: 0.38, Severity: High); Background and foreground colors do not have a sufficient contrast ratio (Score: 0.4, Severity: High)</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
       <c r="P56" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R56" t="n">
-        <v>0</v>
-      </c>
-      <c r="S56" t="inlineStr"/>
-      <c r="T56" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>0.92, Severity: Low</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>ARIA attributes are not used correctly (Score: 0.92, Severity: Low) (Score: N/A, Severity: Unknown)</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>4.1.2 Name, Role, Value</t>
+        </is>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
       <c r="U56" t="inlineStr"/>
       <c r="V56" t="inlineStr"/>
       <c r="W56" t="inlineStr"/>
       <c r="X56" t="inlineStr"/>
-      <c r="Y56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -4434,41 +4820,44 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>First Contentful Paint (Score: 0.09); Speed Index (Score: 0.55); Time to Interactive (Score: 0.3); Ensure text remains visible during webfont load (Score: 0.5); Image elements do not have explicit `width` and `height` (Score: 0.5); Serve static assets with an efficient cache policy (Score: 0.5); Avoid an excessive DOM size (Score: 0.5); Properly size images (Score: 0.5); Does not use passive listeners to improve scrolling performance (Score: 0.5); Avoid serving legacy JavaScript to modern browsers (Score: 0.5); Improve image delivery (Score: 0.5)</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>0</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="N57" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="O57" t="n">
-        <v>0.55</v>
-      </c>
+          <t>ARIA attributes are not used correctly (Score: 0.41, Severity: High); Document language is not specified (Score: 0.96, Severity: Low); Background and foreground colors do not have a sufficient contrast ratio (Score: 0.26, Severity: High)</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
       <c r="P57" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>0</v>
-      </c>
-      <c r="R57" t="n">
-        <v>0</v>
-      </c>
-      <c r="S57" t="inlineStr"/>
-      <c r="T57" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>0.41, Severity: High</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>ARIA attributes are not used correctly (Score: 0.41, Severity: High) (Score: N/A, Severity: Unknown)</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>4.1.2 Name, Role, Value</t>
+        </is>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr"/>
       <c r="W57" t="inlineStr"/>
       <c r="X57" t="inlineStr"/>
-      <c r="Y57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -4507,35 +4896,76 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>First Contentful Paint (Score: 0.2); Largest Contentful Paint (Score: 0.29); Speed Index (Score: 0.67); Time to Interactive (Score: 0.78); Avoid an excessive DOM size (Score: 0.5)</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="N58" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="O58" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="inlineStr"/>
-      <c r="T58" t="inlineStr"/>
-      <c r="U58" t="inlineStr"/>
-      <c r="V58" t="inlineStr"/>
-      <c r="W58" t="inlineStr"/>
-      <c r="X58" t="inlineStr"/>
-      <c r="Y58" t="inlineStr"/>
+          <t>ARIA attributes are not used correctly (Score: 0.45, Severity: High); Interactive controls are not keyboard focusable (Score: 0.58, Severity: Medium); Form elements do not have associated labels (Score: 0.86, Severity: Low); Page structure lacks proper landmark regions (Score: 0.29, Severity: High)</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>0.58, Severity: Medium</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>Interactive controls are not keyboard focusable (Score: 0.58, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>2.1.1 Keyboard</t>
+        </is>
+      </c>
+      <c r="P58" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>0.45, Severity: High</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>ARIA attributes are not used correctly (Score: 0.45, Severity: High) (Score: N/A, Severity: Unknown)</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>4.1.2 Name, Role, Value</t>
+        </is>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>0.86, Severity: Low</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>3.3.2 Labels or Instructions</t>
+        </is>
+      </c>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>Form elements do not have associated labels (Score: 0.86, Severity: Low) (Score: N/A, Severity: Unknown)</t>
+        </is>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -4574,41 +5004,44 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Speed Index (Score: 0.09); Max Potential First Input Delay (Score: 0.11); Total Blocking Time (Score: 0.61); Image elements do not have explicit `width` and `height` (Score: 0.5); Serve static assets with an efficient cache policy (Score: 0.5); Avoid enormous network payloads (Score: 0.5); Avoid serving legacy JavaScript to modern browsers (Score: 0.5); Improve image delivery (Score: 0.5)</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>0</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0</v>
-      </c>
-      <c r="N59" t="n">
-        <v>0</v>
-      </c>
-      <c r="O59" t="n">
-        <v>0.09</v>
+          <t>Interactive controls are not keyboard focusable (Score: 0.68, Severity: Medium)</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>0.68, Severity: Medium</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>Interactive controls are not keyboard focusable (Score: 0.68, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>2.1.1 Keyboard</t>
+        </is>
       </c>
       <c r="P59" t="n">
         <v>0</v>
       </c>
-      <c r="Q59" t="n">
-        <v>0</v>
-      </c>
-      <c r="R59" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr"/>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr"/>
       <c r="V59" t="inlineStr"/>
       <c r="W59" t="inlineStr"/>
       <c r="X59" t="inlineStr"/>
-      <c r="Y59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -4647,41 +5080,28 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>First Contentful Paint (Score: 0.81); Largest Contentful Paint (Score: 0.85); Speed Index (Score: 0.71); Max Potential First Input Delay (Score: 0.47); Time to Interactive (Score: 0.97); Total Blocking Time (Score: 0.87); Ensure text remains visible during webfont load (Score: 0.5); Image elements do not have explicit `width` and `height` (Score: 0.5); Serve static assets with an efficient cache policy (Score: 0.5); Defer offscreen images (Score: 0.5); Reduce unused CSS (Score: 0.5); Properly size images (Score: 0.5); Does not use passive listeners to improve scrolling performance (Score: 0.5); Avoid serving legacy JavaScript to modern browsers (Score: 0.5); Improve image delivery (Score: 0.5); Render blocking requests (Score: 0.5)</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="N60" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="O60" t="n">
-        <v>0.71</v>
-      </c>
+          <t>Document language is not specified (Score: 0.3, Severity: High); Buttons do not have an accessible name (Score: 0.82, Severity: Low); Background and foreground colors do not have a sufficient contrast ratio (Score: 0.61, Severity: Medium)</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr"/>
       <c r="P60" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q60" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R60" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr"/>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr"/>
       <c r="V60" t="inlineStr"/>
       <c r="W60" t="inlineStr"/>
       <c r="X60" t="inlineStr"/>
-      <c r="Y60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -4720,41 +5140,76 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Speed Index (Score: 0.07); Time to Interactive (Score: 0.04); Ensure text remains visible during webfont load (Score: 0.5); Image elements do not have explicit `width` and `height` (Score: 0.5); Serve static assets with an efficient cache policy (Score: 0.5); Defer offscreen images (Score: 0.5); Improve image delivery (Score: 0.5)</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>0</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="N61" t="n">
-        <v>0</v>
-      </c>
-      <c r="O61" t="n">
-        <v>0.07000000000000001</v>
+          <t>ARIA attributes are not used correctly (Score: 0.51, Severity: Medium); Document language is not specified (Score: 0.68, Severity: Medium); Interactive controls are not keyboard focusable (Score: 0.91, Severity: Low); Form elements do not have associated labels (Score: 0.64, Severity: Medium); Background and foreground colors do not have a sufficient contrast ratio (Score: 0.31, Severity: High)</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>0.91, Severity: Low</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>Interactive controls are not keyboard focusable (Score: 0.91, Severity: Low) (Score: N/A, Severity: Unknown)</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>2.1.1 Keyboard</t>
+        </is>
       </c>
       <c r="P61" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q61" t="n">
-        <v>0</v>
-      </c>
-      <c r="R61" t="n">
-        <v>0</v>
-      </c>
-      <c r="S61" t="inlineStr"/>
-      <c r="T61" t="inlineStr"/>
-      <c r="U61" t="inlineStr"/>
-      <c r="V61" t="inlineStr"/>
-      <c r="W61" t="inlineStr"/>
-      <c r="X61" t="inlineStr"/>
-      <c r="Y61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>0.51, Severity: Medium</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>ARIA attributes are not used correctly (Score: 0.51, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
+        </is>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>4.1.2 Name, Role, Value</t>
+        </is>
+      </c>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>0.64, Severity: Medium</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>3.3.2 Labels or Instructions</t>
+        </is>
+      </c>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>Form elements do not have associated labels (Score: 0.64, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
+        </is>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -4793,41 +5248,60 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>First Contentful Paint (Score: 0.94); Speed Index (Score: 0.15); Time to Interactive (Score: 0.05); Image elements do not have explicit `width` and `height` (Score: 0.5); Serve static assets with an efficient cache policy (Score: 0.5); Avoid enormous network payloads (Score: 0.5); Avoid an excessive DOM size (Score: 0.5); Render blocking requests (Score: 0.5)</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>0</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="N62" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="O62" t="n">
-        <v>0.15</v>
-      </c>
+          <t>ARIA attributes are not used correctly (Score: 0.63, Severity: Medium); Document language is not specified (Score: 0.5, Severity: Medium); Links do not have a discernible name (Score: 0.9, Severity: Low); Form elements do not have associated labels (Score: 0.39, Severity: High); Page structure lacks proper landmark regions (Score: 0.76, Severity: Medium)</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr"/>
       <c r="P62" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q62" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R62" t="n">
-        <v>0</v>
-      </c>
-      <c r="S62" t="inlineStr"/>
-      <c r="T62" t="inlineStr"/>
-      <c r="U62" t="inlineStr"/>
-      <c r="V62" t="inlineStr"/>
-      <c r="W62" t="inlineStr"/>
-      <c r="X62" t="inlineStr"/>
-      <c r="Y62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>0.63, Severity: Medium</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>ARIA attributes are not used correctly (Score: 0.63, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
+        </is>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>4.1.2 Name, Role, Value</t>
+        </is>
+      </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>0.39, Severity: High</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>3.3.2 Labels or Instructions</t>
+        </is>
+      </c>
+      <c r="W62" t="inlineStr">
+        <is>
+          <t>Form elements do not have associated labels (Score: 0.39, Severity: High) (Score: N/A, Severity: Unknown)</t>
+        </is>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -4866,41 +5340,44 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>First Contentful Paint (Score: 0.36); Largest Contentful Paint (Score: 0.02); Speed Index (Score: 0.67); Max Potential First Input Delay (Score: 0.92); Time to Interactive (Score: 0.37); Total Blocking Time (Score: 0.98); Ensure text remains visible during webfont load (Score: 0.5); Image elements do not have explicit `width` and `height` (Score: 0.5); Serve static assets with an efficient cache policy (Score: 0.5); Avoid enormous network payloads (Score: 0.5); Defer offscreen images (Score: 0.5); Serve images in next-gen formats (Score: 0.5); Properly size images (Score: 0.5); Avoid serving legacy JavaScript to modern browsers (Score: 0.5); Improve image delivery (Score: 0.5)</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="M63" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="N63" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="O63" t="n">
-        <v>0.67</v>
-      </c>
+          <t>Image elements do not have `[alt]` attributes (Score: 0.49, Severity: High); ARIA attributes are not used correctly (Score: 0.87, Severity: Low); Background and foreground colors do not have a sufficient contrast ratio (Score: 0.17, Severity: High)</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr"/>
       <c r="P63" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q63" t="n">
-        <v>0</v>
-      </c>
-      <c r="R63" t="n">
-        <v>0</v>
-      </c>
-      <c r="S63" t="inlineStr"/>
-      <c r="T63" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>0.87, Severity: Low</t>
+        </is>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>ARIA attributes are not used correctly (Score: 0.87, Severity: Low) (Score: N/A, Severity: Unknown)</t>
+        </is>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>4.1.2 Name, Role, Value</t>
+        </is>
+      </c>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
       <c r="U63" t="inlineStr"/>
       <c r="V63" t="inlineStr"/>
       <c r="W63" t="inlineStr"/>
       <c r="X63" t="inlineStr"/>
-      <c r="Y63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -4939,43 +5416,44 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>First Contentful Paint (Score: 0.07); Speed Index (Score: 0.34); Max Potential First Input Delay (Score: 0.48); Time to Interactive (Score: 0.16); Total Blocking Time (Score: 0.73); Serve static assets with an efficient cache policy (Score: 0.5); Reduce unused CSS (Score: 0.5); Avoid serving legacy JavaScript to modern browsers (Score: 0.5)</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>0</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="N64" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="O64" t="n">
-        <v>0.34</v>
-      </c>
+          <t>Image elements do not have `[alt]` attributes (Score: 0.1, Severity: High); ARIA attributes are not used correctly (Score: 0.6, Severity: Medium); Links do not have a discernible name (Score: 0.38, Severity: High); Heading elements are not in a sequentially-descending order (Score: 0.54, Severity: Medium)</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
       <c r="P64" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q64" t="n">
-        <v>0</v>
-      </c>
-      <c r="R64" t="n">
-        <v>0</v>
-      </c>
-      <c r="S64" t="inlineStr"/>
-      <c r="T64" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>0.6, Severity: Medium</t>
+        </is>
+      </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>ARIA attributes are not used correctly (Score: 0.6, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
+        </is>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>4.1.2 Name, Role, Value</t>
+        </is>
+      </c>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
       <c r="U64" t="inlineStr"/>
-      <c r="V64" t="n">
-        <v>0</v>
-      </c>
+      <c r="V64" t="inlineStr"/>
       <c r="W64" t="inlineStr"/>
       <c r="X64" t="inlineStr"/>
-      <c r="Y64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -5014,41 +5492,44 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>First Contentful Paint (Score: 0.08); Largest Contentful Paint (Score: 0.03); Speed Index (Score: 0.6); Time to Interactive (Score: 0.43); Ensure text remains visible during webfont load (Score: 0.5); Serve static assets with an efficient cache policy (Score: 0.5); Defer offscreen images (Score: 0.5); Avoid serving legacy JavaScript to modern browsers (Score: 0.5)</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="M65" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="N65" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="O65" t="n">
-        <v>0.6</v>
-      </c>
+          <t>ARIA attributes are not used correctly (Score: 0.5, Severity: Medium); Links do not have a discernible name (Score: 0.49, Severity: High); Heading elements are not in a sequentially-descending order (Score: 0.38, Severity: High); Buttons do not have an accessible name (Score: 0.3, Severity: High); Background and foreground colors do not have a sufficient contrast ratio (Score: 0.69, Severity: Medium)</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr"/>
       <c r="P65" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q65" t="n">
-        <v>0</v>
-      </c>
-      <c r="R65" t="n">
-        <v>0</v>
-      </c>
-      <c r="S65" t="inlineStr"/>
-      <c r="T65" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>0.5, Severity: Medium</t>
+        </is>
+      </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>ARIA attributes are not used correctly (Score: 0.5, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
+        </is>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>4.1.2 Name, Role, Value</t>
+        </is>
+      </c>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
       <c r="U65" t="inlineStr"/>
       <c r="V65" t="inlineStr"/>
       <c r="W65" t="inlineStr"/>
       <c r="X65" t="inlineStr"/>
-      <c r="Y65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -5087,41 +5568,60 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>First Contentful Paint (Score: 0.29); Speed Index (Score: 0.41); Max Potential First Input Delay (Score: 0.98); Time to Interactive (Score: 0.29); Image elements do not have explicit `width` and `height` (Score: 0.5); Serve static assets with an efficient cache policy (Score: 0.5); Avoid enormous network payloads (Score: 0.5); Efficiently encode images (Score: 0.5); Does not use passive listeners to improve scrolling performance (Score: 0.5); Avoid serving legacy JavaScript to modern browsers (Score: 0.5)</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>0</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="N66" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="O66" t="n">
-        <v>0.41</v>
+          <t>Document language is not specified (Score: 0.65, Severity: Medium); Interactive controls are not keyboard focusable (Score: 0.89, Severity: Low); Form elements do not have associated labels (Score: 0.39, Severity: High); Buttons do not have an accessible name (Score: 0.32, Severity: High); Page structure lacks proper landmark regions (Score: 0.78, Severity: Medium)</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>0.89, Severity: Low</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>Interactive controls are not keyboard focusable (Score: 0.89, Severity: Low) (Score: N/A, Severity: Unknown)</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>2.1.1 Keyboard</t>
+        </is>
       </c>
       <c r="P66" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q66" t="n">
-        <v>0</v>
-      </c>
-      <c r="R66" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="Q66" t="inlineStr"/>
+      <c r="R66" t="inlineStr"/>
       <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr"/>
-      <c r="U66" t="inlineStr"/>
-      <c r="V66" t="inlineStr"/>
-      <c r="W66" t="inlineStr"/>
-      <c r="X66" t="inlineStr"/>
-      <c r="Y66" t="inlineStr"/>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>0.39, Severity: High</t>
+        </is>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>3.3.2 Labels or Instructions</t>
+        </is>
+      </c>
+      <c r="W66" t="inlineStr">
+        <is>
+          <t>Form elements do not have associated labels (Score: 0.39, Severity: High) (Score: N/A, Severity: Unknown)</t>
+        </is>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -5160,41 +5660,28 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Max Potential First Input Delay (Score: 0.35); Total Blocking Time (Score: 0.64); Image elements do not have explicit `width` and `height` (Score: 0.5); Serve static assets with an efficient cache policy (Score: 0.5); Avoid enormous network payloads (Score: 0.5); Defer offscreen images (Score: 0.5)</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>0</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0</v>
-      </c>
-      <c r="N67" t="n">
-        <v>0</v>
-      </c>
-      <c r="O67" t="n">
-        <v>0</v>
-      </c>
+          <t>Heading elements are not in a sequentially-descending order (Score: 0.39, Severity: High); Page structure lacks proper landmark regions (Score: 0.63, Severity: Medium)</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr"/>
       <c r="P67" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q67" t="n">
-        <v>0</v>
-      </c>
-      <c r="R67" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="inlineStr"/>
       <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr"/>
       <c r="V67" t="inlineStr"/>
       <c r="W67" t="inlineStr"/>
       <c r="X67" t="inlineStr"/>
-      <c r="Y67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -5233,41 +5720,44 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>First Contentful Paint (Score: 0.01); Speed Index (Score: 0.27); Time to Interactive (Score: 0.22); Ensure text remains visible during webfont load (Score: 0.5); Serve static assets with an efficient cache policy (Score: 0.5); Avoid serving legacy JavaScript to modern browsers (Score: 0.5)</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>0</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="N68" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="O68" t="n">
-        <v>0.27</v>
-      </c>
+          <t>Form elements do not have associated labels (Score: 0.37, Severity: High); Background and foreground colors do not have a sufficient contrast ratio (Score: 0.21, Severity: High)</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
       <c r="P68" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q68" t="n">
-        <v>0</v>
-      </c>
-      <c r="R68" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="Q68" t="inlineStr"/>
+      <c r="R68" t="inlineStr"/>
       <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr"/>
-      <c r="U68" t="inlineStr"/>
-      <c r="V68" t="inlineStr"/>
-      <c r="W68" t="inlineStr"/>
-      <c r="X68" t="inlineStr"/>
-      <c r="Y68" t="inlineStr"/>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>0.37, Severity: High</t>
+        </is>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>3.3.2 Labels or Instructions</t>
+        </is>
+      </c>
+      <c r="W68" t="inlineStr">
+        <is>
+          <t>Form elements do not have associated labels (Score: 0.37, Severity: High) (Score: N/A, Severity: Unknown)</t>
+        </is>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -5306,41 +5796,28 @@
         </is>
       </c>
       <c r="J69" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>First Contentful Paint (Score: 0.06); Speed Index (Score: 0.51); Max Potential First Input Delay (Score: 0.61); Time to Interactive (Score: 0.29); Total Blocking Time (Score: 0.85); Ensure text remains visible during webfont load (Score: 0.5); Image elements do not have explicit `width` and `height` (Score: 0.5); Serve static assets with an efficient cache policy (Score: 0.5); Avoid enormous network payloads (Score: 0.5); Serve images in next-gen formats (Score: 0.5); Properly size images (Score: 0.5); Efficiently encode images (Score: 0.5); Avoid serving legacy JavaScript to modern browsers (Score: 0.5); Improve image delivery (Score: 0.5)</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>0</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="N69" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="O69" t="n">
-        <v>0.51</v>
-      </c>
+          <t>Document language is not specified (Score: 0.25, Severity: High); Heading elements are not in a sequentially-descending order (Score: 0.32, Severity: High)</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
       <c r="P69" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q69" t="n">
-        <v>0</v>
-      </c>
-      <c r="R69" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr"/>
       <c r="S69" t="inlineStr"/>
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr"/>
       <c r="V69" t="inlineStr"/>
       <c r="W69" t="inlineStr"/>
       <c r="X69" t="inlineStr"/>
-      <c r="Y69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -5379,39 +5856,44 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>First Contentful Paint (Score: 0.97); Largest Contentful Paint (Score: 0.74); Speed Index (Score: 0.94); Max Potential First Input Delay (Score: 0.94); Time to Interactive (Score: 0.94); Image elements do not have explicit `width` and `height` (Score: 0.5); Serve static assets with an efficient cache policy (Score: 0.5); Reduce unused JavaScript (Score: 0.5); Avoid serving legacy JavaScript to modern browsers (Score: 0.5); Render blocking requests (Score: 0.5)</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="N70" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="O70" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R70" t="n">
-        <v>0.5</v>
-      </c>
+          <t>Interactive controls are not keyboard focusable (Score: 0.25, Severity: High)</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>0.25, Severity: High</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>Interactive controls are not keyboard focusable (Score: 0.25, Severity: High) (Score: N/A, Severity: Unknown)</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>2.1.1 Keyboard</t>
+        </is>
+      </c>
+      <c r="P70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q70" t="inlineStr"/>
+      <c r="R70" t="inlineStr"/>
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr"/>
       <c r="V70" t="inlineStr"/>
       <c r="W70" t="inlineStr"/>
       <c r="X70" t="inlineStr"/>
-      <c r="Y70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -5450,41 +5932,28 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>First Contentful Paint (Score: 0.13); Speed Index (Score: 0.4); Max Potential First Input Delay (Score: 0.39); Time to Interactive (Score: 0.1); Total Blocking Time (Score: 0.88); Serve static assets with an efficient cache policy (Score: 0.5); Defer offscreen images (Score: 0.5); Minify JavaScript (Score: 0.5); Does not use passive listeners to improve scrolling performance (Score: 0.5); Avoid serving legacy JavaScript to modern browsers (Score: 0.5); Improve image delivery (Score: 0.5)</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>0</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="N71" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="O71" t="n">
-        <v>0.4</v>
-      </c>
+          <t>Image elements do not have `[alt]` attributes (Score: 0.62, Severity: Medium)</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
       <c r="P71" t="n">
         <v>0</v>
       </c>
-      <c r="Q71" t="n">
-        <v>0</v>
-      </c>
-      <c r="R71" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr"/>
       <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr"/>
       <c r="V71" t="inlineStr"/>
       <c r="W71" t="inlineStr"/>
       <c r="X71" t="inlineStr"/>
-      <c r="Y71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -5523,39 +5992,44 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>First Contentful Paint (Score: 0.92); Largest Contentful Paint (Score: 0.29); Time to Interactive (Score: 0.77); Image elements do not have explicit `width` and `height` (Score: 0.5); Serve static assets with an efficient cache policy (Score: 0.5); Avoid enormous network payloads (Score: 0.5); Improve image delivery (Score: 0.5)</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="M72" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="N72" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
+          <t>Interactive controls are not keyboard focusable (Score: 0.14, Severity: High)</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>0.14, Severity: High</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>Interactive controls are not keyboard focusable (Score: 0.14, Severity: High) (Score: N/A, Severity: Unknown)</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>2.1.1 Keyboard</t>
+        </is>
+      </c>
       <c r="P72" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q72" t="n">
-        <v>0</v>
-      </c>
-      <c r="R72" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr"/>
       <c r="S72" t="inlineStr"/>
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr"/>
       <c r="V72" t="inlineStr"/>
       <c r="W72" t="inlineStr"/>
       <c r="X72" t="inlineStr"/>
-      <c r="Y72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -5594,41 +6068,28 @@
         </is>
       </c>
       <c r="J73" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>First Contentful Paint (Score: 0.33); Largest Contentful Paint (Score: 0.48); Speed Index (Score: 0.46); Max Potential First Input Delay (Score: 0.96); Time to Interactive (Score: 0.01); Total Blocking Time (Score: 0.99); Serve static assets with an efficient cache policy (Score: 0.5); Avoid enormous network payloads (Score: 0.5); Serve images in next-gen formats (Score: 0.5); Properly size images (Score: 0.5); Efficiently encode images (Score: 0.5); Does not use passive listeners to improve scrolling performance (Score: 0.5); Enable text compression (Score: 0.5); Avoid serving legacy JavaScript to modern browsers (Score: 0.5)</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="M73" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="N73" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="O73" t="n">
-        <v>0.46</v>
-      </c>
+          <t>Document language is not specified (Score: 0.18, Severity: High); Heading elements are not in a sequentially-descending order (Score: 0.41, Severity: High); Page structure lacks proper landmark regions (Score: 0.44, Severity: High)</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="inlineStr"/>
+      <c r="O73" t="inlineStr"/>
       <c r="P73" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q73" t="n">
-        <v>0</v>
-      </c>
-      <c r="R73" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="inlineStr"/>
       <c r="S73" t="inlineStr"/>
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr"/>
       <c r="V73" t="inlineStr"/>
       <c r="W73" t="inlineStr"/>
       <c r="X73" t="inlineStr"/>
-      <c r="Y73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -5667,41 +6128,44 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>First Contentful Paint (Score: 0.94); Speed Index (Score: 0.66); Max Potential First Input Delay (Score: 0.88); Time to Interactive (Score: 0.23); Ensure text remains visible during webfont load (Score: 0.5); Image elements do not have explicit `width` and `height` (Score: 0.5); Serve static assets with an efficient cache policy (Score: 0.5); Avoid an excessive DOM size (Score: 0.5); Serve images in next-gen formats (Score: 0.5); Efficiently encode images (Score: 0.5); Avoid serving legacy JavaScript to modern browsers (Score: 0.5)</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>0</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="N74" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="O74" t="n">
-        <v>0.66</v>
-      </c>
+          <t>Links do not have a discernible name (Score: 0.14, Severity: High); Form elements do not have associated labels (Score: 0.57, Severity: Medium); Page structure lacks proper landmark regions (Score: 0.71, Severity: Medium)</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr"/>
       <c r="P74" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q74" t="n">
-        <v>0</v>
-      </c>
-      <c r="R74" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr"/>
       <c r="S74" t="inlineStr"/>
       <c r="T74" t="inlineStr"/>
-      <c r="U74" t="inlineStr"/>
-      <c r="V74" t="inlineStr"/>
-      <c r="W74" t="inlineStr"/>
-      <c r="X74" t="inlineStr"/>
-      <c r="Y74" t="inlineStr"/>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>0.57, Severity: Medium</t>
+        </is>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>3.3.2 Labels or Instructions</t>
+        </is>
+      </c>
+      <c r="W74" t="inlineStr">
+        <is>
+          <t>Form elements do not have associated labels (Score: 0.57, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
+        </is>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -5740,41 +6204,28 @@
         </is>
       </c>
       <c r="J75" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Speed Index (Score: 0.22); Time to Interactive (Score: 0.17); Total Blocking Time (Score: 0.21); Image elements do not have explicit `width` and `height` (Score: 0.5); Serve static assets with an efficient cache policy (Score: 0.5); Defer offscreen images (Score: 0.5); Avoid an excessive DOM size (Score: 0.5); Serve images in next-gen formats (Score: 0.5); Does not use passive listeners to improve scrolling performance (Score: 0.5); Avoid serving legacy JavaScript to modern browsers (Score: 0.5)</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>0</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="N75" t="n">
-        <v>0</v>
-      </c>
-      <c r="O75" t="n">
-        <v>0.22</v>
-      </c>
+          <t>Image elements do not have `[alt]` attributes (Score: 0.27, Severity: High); Buttons do not have an accessible name (Score: 0.12, Severity: High)</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr"/>
       <c r="P75" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q75" t="n">
-        <v>0</v>
-      </c>
-      <c r="R75" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr"/>
       <c r="S75" t="inlineStr"/>
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="inlineStr"/>
       <c r="V75" t="inlineStr"/>
       <c r="W75" t="inlineStr"/>
       <c r="X75" t="inlineStr"/>
-      <c r="Y75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -5813,41 +6264,28 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>First Contentful Paint (Score: 0.79); Largest Contentful Paint (Score: 0.28); Speed Index (Score: 0.99); Time to Interactive (Score: 0.75); Ensure text remains visible during webfont load (Score: 0.5); Image elements do not have explicit `width` and `height` (Score: 0.5); Serve static assets with an efficient cache policy (Score: 0.5); Defer offscreen images (Score: 0.5); Avoid serving legacy JavaScript to modern browsers (Score: 0.5)</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="N76" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="O76" t="n">
-        <v>0.99</v>
-      </c>
+          <t>Image elements do not have `[alt]` attributes (Score: 0.61, Severity: Medium); Links do not have a discernible name (Score: 0.73, Severity: Medium)</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="inlineStr"/>
+      <c r="O76" t="inlineStr"/>
       <c r="P76" t="n">
         <v>0</v>
       </c>
-      <c r="Q76" t="n">
-        <v>0</v>
-      </c>
-      <c r="R76" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q76" t="inlineStr"/>
+      <c r="R76" t="inlineStr"/>
       <c r="S76" t="inlineStr"/>
       <c r="T76" t="inlineStr"/>
       <c r="U76" t="inlineStr"/>
       <c r="V76" t="inlineStr"/>
       <c r="W76" t="inlineStr"/>
       <c r="X76" t="inlineStr"/>
-      <c r="Y76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -5886,41 +6324,60 @@
         </is>
       </c>
       <c r="J77" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>First Contentful Paint (Score: 0.03); Speed Index (Score: 0.46); Time to Interactive (Score: 0.27); Image elements do not have explicit `width` and `height` (Score: 0.5); Serve static assets with an efficient cache policy (Score: 0.5); Avoid enormous network payloads (Score: 0.5); Avoid an excessive DOM size (Score: 0.5); Properly size images (Score: 0.5); Efficiently encode images (Score: 0.5); Improve image delivery (Score: 0.5)</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>0</v>
-      </c>
-      <c r="M77" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="N77" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="O77" t="n">
-        <v>0.46</v>
-      </c>
+          <t>ARIA attributes are not used correctly (Score: 0.1, Severity: High); Document language is not specified (Score: 0.29, Severity: High); Links do not have a discernible name (Score: 0.39, Severity: High); Form elements do not have associated labels (Score: 0.52, Severity: Medium)</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="inlineStr"/>
+      <c r="O77" t="inlineStr"/>
       <c r="P77" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q77" t="n">
-        <v>0</v>
-      </c>
-      <c r="R77" t="n">
-        <v>0</v>
-      </c>
-      <c r="S77" t="inlineStr"/>
-      <c r="T77" t="inlineStr"/>
-      <c r="U77" t="inlineStr"/>
-      <c r="V77" t="inlineStr"/>
-      <c r="W77" t="inlineStr"/>
-      <c r="X77" t="inlineStr"/>
-      <c r="Y77" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>0.1, Severity: High</t>
+        </is>
+      </c>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>ARIA attributes are not used correctly (Score: 0.1, Severity: High) (Score: N/A, Severity: Unknown)</t>
+        </is>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>4.1.2 Name, Role, Value</t>
+        </is>
+      </c>
+      <c r="T77" t="inlineStr">
+        <is>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>0.52, Severity: Medium</t>
+        </is>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>3.3.2 Labels or Instructions</t>
+        </is>
+      </c>
+      <c r="W77" t="inlineStr">
+        <is>
+          <t>Form elements do not have associated labels (Score: 0.52, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
+        </is>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -5959,35 +6416,44 @@
         </is>
       </c>
       <c r="J78" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Largest Contentful Paint (Score: 0.81); Time to Interactive (Score: 0.96); Ensure text remains visible during webfont load (Score: 0.5); Image elements do not have explicit `width` and `height` (Score: 0.5); Serve static assets with an efficient cache policy (Score: 0.5); Reduce unused JavaScript (Score: 0.5); Avoid serving legacy JavaScript to modern browsers (Score: 0.5)</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0.96</v>
-      </c>
+          <t>ARIA attributes are not used correctly (Score: 0.2, Severity: High); Links do not have a discernible name (Score: 0.71, Severity: Medium); Buttons do not have an accessible name (Score: 0.81, Severity: Low); Background and foreground colors do not have a sufficient contrast ratio (Score: 0.68, Severity: Medium)</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr"/>
       <c r="P78" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="S78" t="inlineStr"/>
-      <c r="T78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>0.2, Severity: High</t>
+        </is>
+      </c>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>ARIA attributes are not used correctly (Score: 0.2, Severity: High) (Score: N/A, Severity: Unknown)</t>
+        </is>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>4.1.2 Name, Role, Value</t>
+        </is>
+      </c>
+      <c r="T78" t="inlineStr">
+        <is>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
       <c r="U78" t="inlineStr"/>
       <c r="V78" t="inlineStr"/>
       <c r="W78" t="inlineStr"/>
       <c r="X78" t="inlineStr"/>
-      <c r="Y78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -6026,41 +6492,28 @@
         </is>
       </c>
       <c r="J79" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>First Contentful Paint (Score: 0.98); Largest Contentful Paint (Score: 0.49); Speed Index (Score: 0.86); Max Potential First Input Delay (Score: 0.98); Time to Interactive (Score: 0.73); Serve static assets with an efficient cache policy (Score: 0.5); Avoid an excessive DOM size (Score: 0.5); Reduce unused JavaScript (Score: 0.5); Does not use passive listeners to improve scrolling performance (Score: 0.5); Avoid serving legacy JavaScript to modern browsers (Score: 0.5); Improve image delivery (Score: 0.5); Render blocking requests (Score: 0.5)</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="N79" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="O79" t="n">
-        <v>0.86</v>
-      </c>
+          <t>Heading elements are not in a sequentially-descending order (Score: 0.1, Severity: High)</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="inlineStr"/>
+      <c r="O79" t="inlineStr"/>
       <c r="P79" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q79" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R79" t="n">
-        <v>0.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q79" t="inlineStr"/>
+      <c r="R79" t="inlineStr"/>
       <c r="S79" t="inlineStr"/>
       <c r="T79" t="inlineStr"/>
       <c r="U79" t="inlineStr"/>
       <c r="V79" t="inlineStr"/>
       <c r="W79" t="inlineStr"/>
       <c r="X79" t="inlineStr"/>
-      <c r="Y79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -6099,41 +6552,44 @@
         </is>
       </c>
       <c r="J80" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>First Contentful Paint (Score: 0.41); Largest Contentful Paint (Score: 0.03); Speed Index (Score: 0.85); Max Potential First Input Delay (Score: 0.7); Time to Interactive (Score: 0.43); Total Blocking Time (Score: 0.99); Ensure text remains visible during webfont load (Score: 0.5); Image elements do not have explicit `width` and `height` (Score: 0.5); Serve static assets with an efficient cache policy (Score: 0.5); Avoid an excessive DOM size (Score: 0.5); Does not use passive listeners to improve scrolling performance (Score: 0.5); Avoid serving legacy JavaScript to modern browsers (Score: 0.5); Improve image delivery (Score: 0.5)</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="N80" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="O80" t="n">
-        <v>0.85</v>
-      </c>
+          <t>Image elements do not have `[alt]` attributes (Score: 0.15, Severity: High); Form elements do not have associated labels (Score: 0.99, Severity: Low); Page structure lacks proper landmark regions (Score: 0.95, Severity: Low)</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="inlineStr"/>
+      <c r="O80" t="inlineStr"/>
       <c r="P80" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q80" t="n">
-        <v>0</v>
-      </c>
-      <c r="R80" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q80" t="inlineStr"/>
+      <c r="R80" t="inlineStr"/>
       <c r="S80" t="inlineStr"/>
       <c r="T80" t="inlineStr"/>
-      <c r="U80" t="inlineStr"/>
-      <c r="V80" t="inlineStr"/>
-      <c r="W80" t="inlineStr"/>
-      <c r="X80" t="inlineStr"/>
-      <c r="Y80" t="inlineStr"/>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>0.99, Severity: Low</t>
+        </is>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>3.3.2 Labels or Instructions</t>
+        </is>
+      </c>
+      <c r="W80" t="inlineStr">
+        <is>
+          <t>Form elements do not have associated labels (Score: 0.99, Severity: Low) (Score: N/A, Severity: Unknown)</t>
+        </is>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -6172,41 +6628,44 @@
         </is>
       </c>
       <c r="J81" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>First Contentful Paint (Score: 0.05); Largest Contentful Paint (Score: 0.04); Speed Index (Score: 0.51); Time to Interactive (Score: 0.47); Ensure text remains visible during webfont load (Score: 0.5); Image elements do not have explicit `width` and `height` (Score: 0.5); Serve static assets with an efficient cache policy (Score: 0.5); Avoid enormous network payloads (Score: 0.5); Avoid serving legacy JavaScript to modern browsers (Score: 0.5); Render blocking requests (Score: 0.5)</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="M81" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="N81" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="O81" t="n">
-        <v>0.51</v>
-      </c>
+          <t>Form elements do not have associated labels (Score: 0.26, Severity: High)</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="inlineStr"/>
+      <c r="O81" t="inlineStr"/>
       <c r="P81" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q81" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R81" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q81" t="inlineStr"/>
+      <c r="R81" t="inlineStr"/>
       <c r="S81" t="inlineStr"/>
       <c r="T81" t="inlineStr"/>
-      <c r="U81" t="inlineStr"/>
-      <c r="V81" t="inlineStr"/>
-      <c r="W81" t="inlineStr"/>
-      <c r="X81" t="inlineStr"/>
-      <c r="Y81" t="inlineStr"/>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>0.26, Severity: High</t>
+        </is>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>3.3.2 Labels or Instructions</t>
+        </is>
+      </c>
+      <c r="W81" t="inlineStr">
+        <is>
+          <t>Form elements do not have associated labels (Score: 0.26, Severity: High) (Score: N/A, Severity: Unknown)</t>
+        </is>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -6245,37 +6704,60 @@
         </is>
       </c>
       <c r="J82" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>First Contentful Paint (Score: 0.74); Largest Contentful Paint (Score: 0.4); Speed Index (Score: 0.79); Time to Interactive (Score: 0.84); Image elements do not have explicit `width` and `height` (Score: 0.5); Reduce unused CSS (Score: 0.5)</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="M82" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="N82" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="O82" t="n">
-        <v>0.79</v>
-      </c>
+          <t>Image elements do not have `[alt]` attributes (Score: 0.49, Severity: High); ARIA attributes are not used correctly (Score: 0.56, Severity: Medium); Form elements do not have associated labels (Score: 0.65, Severity: Medium); Heading elements are not in a sequentially-descending order (Score: 0.27, Severity: High); Page structure lacks proper landmark regions (Score: 0.85, Severity: Low)</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="inlineStr"/>
+      <c r="O82" t="inlineStr"/>
       <c r="P82" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="inlineStr"/>
-      <c r="T82" t="inlineStr"/>
-      <c r="U82" t="inlineStr"/>
-      <c r="V82" t="inlineStr"/>
-      <c r="W82" t="inlineStr"/>
-      <c r="X82" t="inlineStr"/>
-      <c r="Y82" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>0.56, Severity: Medium</t>
+        </is>
+      </c>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>ARIA attributes are not used correctly (Score: 0.56, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
+        </is>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>4.1.2 Name, Role, Value</t>
+        </is>
+      </c>
+      <c r="T82" t="inlineStr">
+        <is>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>0.65, Severity: Medium</t>
+        </is>
+      </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>3.3.2 Labels or Instructions</t>
+        </is>
+      </c>
+      <c r="W82" t="inlineStr">
+        <is>
+          <t>Form elements do not have associated labels (Score: 0.65, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
+        </is>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -6314,39 +6796,44 @@
         </is>
       </c>
       <c r="J83" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>First Contentful Paint (Score: 0.98); Largest Contentful Paint (Score: 0.9); Max Potential First Input Delay (Score: 0.99); Time to Interactive (Score: 0.72); Image elements do not have explicit `width` and `height` (Score: 0.5); Serve static assets with an efficient cache policy (Score: 0.5); Reduce unused JavaScript (Score: 0.5); Does not use passive listeners to improve scrolling performance (Score: 0.5); Enable text compression (Score: 0.5); Avoid serving legacy JavaScript to modern browsers (Score: 0.5); Render blocking requests (Score: 0.5)</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="N83" t="n">
-        <v>0.98</v>
-      </c>
+          <t>ARIA attributes are not used correctly (Score: 0.42, Severity: High); Heading elements are not in a sequentially-descending order (Score: 0.15, Severity: High)</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr"/>
       <c r="P83" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q83" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R83" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="S83" t="inlineStr"/>
-      <c r="T83" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>0.42, Severity: High</t>
+        </is>
+      </c>
+      <c r="R83" t="inlineStr">
+        <is>
+          <t>ARIA attributes are not used correctly (Score: 0.42, Severity: High) (Score: N/A, Severity: Unknown)</t>
+        </is>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>4.1.2 Name, Role, Value</t>
+        </is>
+      </c>
+      <c r="T83" t="inlineStr">
+        <is>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
       <c r="U83" t="inlineStr"/>
       <c r="V83" t="inlineStr"/>
       <c r="W83" t="inlineStr"/>
       <c r="X83" t="inlineStr"/>
-      <c r="Y83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -6385,41 +6872,44 @@
         </is>
       </c>
       <c r="J84" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>First Contentful Paint (Score: 0.73); Largest Contentful Paint (Score: 0.2); Speed Index (Score: 0.91); Time to Interactive (Score: 0.71); Ensure text remains visible during webfont load (Score: 0.5); Image elements do not have explicit `width` and `height` (Score: 0.5); Serve static assets with an efficient cache policy (Score: 0.5); Defer offscreen images (Score: 0.5); Avoid an excessive DOM size (Score: 0.5); Serve images in next-gen formats (Score: 0.5); Improve image delivery (Score: 0.5)</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="N84" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="O84" t="n">
-        <v>0.91</v>
-      </c>
+          <t>ARIA attributes are not used correctly (Score: 0.82, Severity: Low); Links do not have a discernible name (Score: 0.71, Severity: Medium); Buttons do not have an accessible name (Score: 0.93, Severity: Low); Background and foreground colors do not have a sufficient contrast ratio (Score: 0.92, Severity: Low); Page structure lacks proper landmark regions (Score: 0.85, Severity: Low)</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="inlineStr"/>
+      <c r="O84" t="inlineStr"/>
       <c r="P84" t="n">
         <v>0</v>
       </c>
-      <c r="Q84" t="n">
-        <v>0</v>
-      </c>
-      <c r="R84" t="n">
-        <v>0</v>
-      </c>
-      <c r="S84" t="inlineStr"/>
-      <c r="T84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>0.82, Severity: Low</t>
+        </is>
+      </c>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>ARIA attributes are not used correctly (Score: 0.82, Severity: Low) (Score: N/A, Severity: Unknown)</t>
+        </is>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>4.1.2 Name, Role, Value</t>
+        </is>
+      </c>
+      <c r="T84" t="inlineStr">
+        <is>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
       <c r="U84" t="inlineStr"/>
       <c r="V84" t="inlineStr"/>
       <c r="W84" t="inlineStr"/>
       <c r="X84" t="inlineStr"/>
-      <c r="Y84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -6458,41 +6948,44 @@
         </is>
       </c>
       <c r="J85" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>First Contentful Paint (Score: 0.06); Speed Index (Score: 0.02); Max Potential First Input Delay (Score: 0.92); Time to Interactive (Score: 0.01); Ensure text remains visible during webfont load (Score: 0.5); Image elements do not have explicit `width` and `height` (Score: 0.5); Serve static assets with an efficient cache policy (Score: 0.5); Avoid enormous network payloads (Score: 0.5); Properly size images (Score: 0.5); Does not use passive listeners to improve scrolling performance (Score: 0.5); Avoid serving legacy JavaScript to modern browsers (Score: 0.5); Improve image delivery (Score: 0.5); Render blocking requests (Score: 0.5); Document request latency (Score: 0.5)</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>0</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="N85" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="O85" t="n">
-        <v>0.02</v>
+          <t>Image elements do not have `[alt]` attributes (Score: 0.11, Severity: High); Interactive controls are not keyboard focusable (Score: 0.26, Severity: High); Heading elements are not in a sequentially-descending order (Score: 0.65, Severity: Medium); Background and foreground colors do not have a sufficient contrast ratio (Score: 0.33, Severity: High)</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>0.26, Severity: High</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>Interactive controls are not keyboard focusable (Score: 0.26, Severity: High) (Score: N/A, Severity: Unknown)</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>2.1.1 Keyboard</t>
+        </is>
       </c>
       <c r="P85" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q85" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R85" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q85" t="inlineStr"/>
+      <c r="R85" t="inlineStr"/>
       <c r="S85" t="inlineStr"/>
       <c r="T85" t="inlineStr"/>
       <c r="U85" t="inlineStr"/>
       <c r="V85" t="inlineStr"/>
       <c r="W85" t="inlineStr"/>
       <c r="X85" t="inlineStr"/>
-      <c r="Y85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -6531,39 +7024,44 @@
         </is>
       </c>
       <c r="J86" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>First Contentful Paint (Score: 0.99); Speed Index (Score: 0.81); Time to Interactive (Score: 0.25); Serve static assets with an efficient cache policy (Score: 0.5); Serve images in next-gen formats (Score: 0.5); Does not use passive listeners to improve scrolling performance (Score: 0.5); Improve image delivery (Score: 0.5); Render blocking requests (Score: 0.5)</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>0</v>
-      </c>
-      <c r="M86" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="N86" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="O86" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R86" t="n">
-        <v>0</v>
-      </c>
+          <t>Links do not have a discernible name (Score: 0.25, Severity: High); Form elements do not have associated labels (Score: 0.87, Severity: Low)</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="inlineStr"/>
+      <c r="O86" t="inlineStr"/>
+      <c r="P86" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q86" t="inlineStr"/>
+      <c r="R86" t="inlineStr"/>
       <c r="S86" t="inlineStr"/>
       <c r="T86" t="inlineStr"/>
-      <c r="U86" t="inlineStr"/>
-      <c r="V86" t="inlineStr"/>
-      <c r="W86" t="inlineStr"/>
-      <c r="X86" t="inlineStr"/>
-      <c r="Y86" t="inlineStr"/>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>0.87, Severity: Low</t>
+        </is>
+      </c>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>3.3.2 Labels or Instructions</t>
+        </is>
+      </c>
+      <c r="W86" t="inlineStr">
+        <is>
+          <t>Form elements do not have associated labels (Score: 0.87, Severity: Low) (Score: N/A, Severity: Unknown)</t>
+        </is>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -6602,41 +7100,44 @@
         </is>
       </c>
       <c r="J87" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>First Contentful Paint (Score: 0.43); Speed Index (Score: 0.62); Max Potential First Input Delay (Score: 0.87); Time to Interactive (Score: 0.16); Total Blocking Time (Score: 0.88); Image elements do not have explicit `width` and `height` (Score: 0.5); Serve static assets with an efficient cache policy (Score: 0.5); Defer offscreen images (Score: 0.5); Does not use passive listeners to improve scrolling performance (Score: 0.5); Avoid serving legacy JavaScript to modern browsers (Score: 0.5); Render blocking requests (Score: 0.5)</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>0</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="N87" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="O87" t="n">
-        <v>0.62</v>
-      </c>
+          <t>Image elements do not have `[alt]` attributes (Score: 0.7, Severity: Medium); ARIA attributes are not used correctly (Score: 0.77, Severity: Medium); Links do not have a discernible name (Score: 0.69, Severity: Medium); Heading elements are not in a sequentially-descending order (Score: 0.21, Severity: High)</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="inlineStr"/>
+      <c r="O87" t="inlineStr"/>
       <c r="P87" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q87" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R87" t="n">
-        <v>0</v>
-      </c>
-      <c r="S87" t="inlineStr"/>
-      <c r="T87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>0.77, Severity: Medium</t>
+        </is>
+      </c>
+      <c r="R87" t="inlineStr">
+        <is>
+          <t>ARIA attributes are not used correctly (Score: 0.77, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
+        </is>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>4.1.2 Name, Role, Value</t>
+        </is>
+      </c>
+      <c r="T87" t="inlineStr">
+        <is>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
       <c r="U87" t="inlineStr"/>
       <c r="V87" t="inlineStr"/>
       <c r="W87" t="inlineStr"/>
       <c r="X87" t="inlineStr"/>
-      <c r="Y87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -6675,41 +7176,28 @@
         </is>
       </c>
       <c r="J88" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>First Contentful Paint (Score: 0.01); Speed Index (Score: 0.18); Max Potential First Input Delay (Score: 0.96); Time to Interactive (Score: 0.01); Total Blocking Time (Score: 0.99); Ensure text remains visible during webfont load (Score: 0.5); Serve static assets with an efficient cache policy (Score: 0.5); Avoid enormous network payloads (Score: 0.5); Avoid an excessive DOM size (Score: 0.5); Minify JavaScript (Score: 0.5); Avoid serving legacy JavaScript to modern browsers (Score: 0.5); Render blocking requests (Score: 0.5)</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>0</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="N88" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="O88" t="n">
-        <v>0.18</v>
-      </c>
+          <t>Links do not have a discernible name (Score: 0.38, Severity: High)</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="inlineStr"/>
+      <c r="O88" t="inlineStr"/>
       <c r="P88" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q88" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R88" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q88" t="inlineStr"/>
+      <c r="R88" t="inlineStr"/>
       <c r="S88" t="inlineStr"/>
       <c r="T88" t="inlineStr"/>
       <c r="U88" t="inlineStr"/>
       <c r="V88" t="inlineStr"/>
       <c r="W88" t="inlineStr"/>
       <c r="X88" t="inlineStr"/>
-      <c r="Y88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -6748,39 +7236,60 @@
         </is>
       </c>
       <c r="J89" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>First Contentful Paint (Score: 0.89); Speed Index (Score: 0.8); Max Potential First Input Delay (Score: 0.52); Time to Interactive (Score: 0.15); Total Blocking Time (Score: 0.98); Serve static assets with an efficient cache policy (Score: 0.5); Avoid an excessive DOM size (Score: 0.5); Properly size images (Score: 0.5); Avoid serving legacy JavaScript to modern browsers (Score: 0.5); Improve image delivery (Score: 0.5)</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>0</v>
-      </c>
-      <c r="M89" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="N89" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="O89" t="n">
-        <v>0.8</v>
-      </c>
+          <t>Image elements do not have `[alt]` attributes (Score: 0.48, Severity: High); ARIA attributes are not used correctly (Score: 0.24, Severity: High); Form elements do not have associated labels (Score: 0.34, Severity: High); Heading elements are not in a sequentially-descending order (Score: 0.43, Severity: High); Page structure lacks proper landmark regions (Score: 0.35, Severity: High)</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="inlineStr"/>
+      <c r="O89" t="inlineStr"/>
       <c r="P89" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="n">
-        <v>0</v>
-      </c>
-      <c r="S89" t="inlineStr"/>
-      <c r="T89" t="inlineStr"/>
-      <c r="U89" t="inlineStr"/>
-      <c r="V89" t="inlineStr"/>
-      <c r="W89" t="inlineStr"/>
-      <c r="X89" t="inlineStr"/>
-      <c r="Y89" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>0.24, Severity: High</t>
+        </is>
+      </c>
+      <c r="R89" t="inlineStr">
+        <is>
+          <t>ARIA attributes are not used correctly (Score: 0.24, Severity: High) (Score: N/A, Severity: Unknown)</t>
+        </is>
+      </c>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>4.1.2 Name, Role, Value</t>
+        </is>
+      </c>
+      <c r="T89" t="inlineStr">
+        <is>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>0.34, Severity: High</t>
+        </is>
+      </c>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t>3.3.2 Labels or Instructions</t>
+        </is>
+      </c>
+      <c r="W89" t="inlineStr">
+        <is>
+          <t>Form elements do not have associated labels (Score: 0.34, Severity: High) (Score: N/A, Severity: Unknown)</t>
+        </is>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -6819,41 +7328,44 @@
         </is>
       </c>
       <c r="J90" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>First Contentful Paint (Score: 0.04); Speed Index (Score: 0.09); Max Potential First Input Delay (Score: 0.99); Time to Interactive (Score: 0.02); Ensure text remains visible during webfont load (Score: 0.5); Serve static assets with an efficient cache policy (Score: 0.5); Avoid enormous network payloads (Score: 0.5); Defer offscreen images (Score: 0.5); Avoid an excessive DOM size (Score: 0.5); Serve images in next-gen formats (Score: 0.5); Does not use passive listeners to improve scrolling performance (Score: 0.5); Avoid serving legacy JavaScript to modern browsers (Score: 0.5); Document request latency (Score: 0.5)</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>0</v>
-      </c>
-      <c r="M90" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="N90" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="O90" t="n">
-        <v>0.09</v>
-      </c>
+          <t>ARIA attributes are not used correctly (Score: 0.99, Severity: Low); Document language is not specified (Score: 0.71, Severity: Medium); Links do not have a discernible name (Score: 0.79, Severity: Medium); Heading elements are not in a sequentially-descending order (Score: 0.52, Severity: Medium); Buttons do not have an accessible name (Score: 0.17, Severity: High)</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="inlineStr"/>
+      <c r="O90" t="inlineStr"/>
       <c r="P90" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q90" t="n">
-        <v>0</v>
-      </c>
-      <c r="R90" t="n">
-        <v>0</v>
-      </c>
-      <c r="S90" t="inlineStr"/>
-      <c r="T90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>0.99, Severity: Low</t>
+        </is>
+      </c>
+      <c r="R90" t="inlineStr">
+        <is>
+          <t>ARIA attributes are not used correctly (Score: 0.99, Severity: Low) (Score: N/A, Severity: Unknown)</t>
+        </is>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>4.1.2 Name, Role, Value</t>
+        </is>
+      </c>
+      <c r="T90" t="inlineStr">
+        <is>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
       <c r="U90" t="inlineStr"/>
       <c r="V90" t="inlineStr"/>
       <c r="W90" t="inlineStr"/>
       <c r="X90" t="inlineStr"/>
-      <c r="Y90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -6884,14 +7396,20 @@
         </is>
       </c>
       <c r="J91" t="n">
-        <v>0</v>
-      </c>
-      <c r="K91" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>Document language is not specified (Score: 0.26, Severity: High); Page structure lacks proper landmark regions (Score: 0.69, Severity: Medium)</t>
+        </is>
+      </c>
       <c r="L91" t="inlineStr"/>
       <c r="M91" t="inlineStr"/>
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
+      <c r="P91" t="n">
+        <v>1</v>
+      </c>
       <c r="Q91" t="inlineStr"/>
       <c r="R91" t="inlineStr"/>
       <c r="S91" t="inlineStr"/>
@@ -6900,7 +7418,6 @@
       <c r="V91" t="inlineStr"/>
       <c r="W91" t="inlineStr"/>
       <c r="X91" t="inlineStr"/>
-      <c r="Y91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -6939,41 +7456,28 @@
         </is>
       </c>
       <c r="J92" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>First Contentful Paint (Score: 0.09); Largest Contentful Paint (Score: 0.02); Speed Index (Score: 0.46); Time to Interactive (Score: 0.42); Avoid an excessive DOM size (Score: 0.5); Serve images in next-gen formats (Score: 0.5); Properly size images (Score: 0.5); Avoid serving legacy JavaScript to modern browsers (Score: 0.5); Improve image delivery (Score: 0.5)</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="M92" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="N92" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="O92" t="n">
-        <v>0.46</v>
-      </c>
+          <t>Buttons do not have an accessible name (Score: 0.56, Severity: Medium); Page structure lacks proper landmark regions (Score: 0.72, Severity: Medium)</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="inlineStr"/>
+      <c r="O92" t="inlineStr"/>
       <c r="P92" t="n">
         <v>0</v>
       </c>
-      <c r="Q92" t="n">
-        <v>0</v>
-      </c>
-      <c r="R92" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q92" t="inlineStr"/>
+      <c r="R92" t="inlineStr"/>
       <c r="S92" t="inlineStr"/>
       <c r="T92" t="inlineStr"/>
       <c r="U92" t="inlineStr"/>
       <c r="V92" t="inlineStr"/>
       <c r="W92" t="inlineStr"/>
       <c r="X92" t="inlineStr"/>
-      <c r="Y92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -7012,41 +7516,76 @@
         </is>
       </c>
       <c r="J93" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Max Potential First Input Delay (Score: 0.99); Time to Interactive (Score: 0.01); Ensure text remains visible during webfont load (Score: 0.5); Image elements do not have explicit `width` and `height` (Score: 0.5); Serve static assets with an efficient cache policy (Score: 0.5); Avoid enormous network payloads (Score: 0.5); Avoid an excessive DOM size (Score: 0.5); Properly size images (Score: 0.5); Avoid serving legacy JavaScript to modern browsers (Score: 0.5); Improve image delivery (Score: 0.5); Render blocking requests (Score: 0.5)</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>0</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="N93" t="n">
-        <v>0</v>
-      </c>
-      <c r="O93" t="n">
-        <v>0</v>
+          <t>Image elements do not have `[alt]` attributes (Score: 0.35, Severity: High); ARIA attributes are not used correctly (Score: 0.27, Severity: High); Document language is not specified (Score: 0.82, Severity: Low); Interactive controls are not keyboard focusable (Score: 0.14, Severity: High); Form elements do not have associated labels (Score: 0.38, Severity: High)</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>0.14, Severity: High</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>Interactive controls are not keyboard focusable (Score: 0.14, Severity: High) (Score: N/A, Severity: Unknown)</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>2.1.1 Keyboard</t>
+        </is>
       </c>
       <c r="P93" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q93" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R93" t="n">
-        <v>0</v>
-      </c>
-      <c r="S93" t="inlineStr"/>
-      <c r="T93" t="inlineStr"/>
-      <c r="U93" t="inlineStr"/>
-      <c r="V93" t="inlineStr"/>
-      <c r="W93" t="inlineStr"/>
-      <c r="X93" t="inlineStr"/>
-      <c r="Y93" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>0.27, Severity: High</t>
+        </is>
+      </c>
+      <c r="R93" t="inlineStr">
+        <is>
+          <t>ARIA attributes are not used correctly (Score: 0.27, Severity: High) (Score: N/A, Severity: Unknown)</t>
+        </is>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>4.1.2 Name, Role, Value</t>
+        </is>
+      </c>
+      <c r="T93" t="inlineStr">
+        <is>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>0.38, Severity: High</t>
+        </is>
+      </c>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>3.3.2 Labels or Instructions</t>
+        </is>
+      </c>
+      <c r="W93" t="inlineStr">
+        <is>
+          <t>Form elements do not have associated labels (Score: 0.38, Severity: High) (Score: N/A, Severity: Unknown)</t>
+        </is>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -7085,41 +7624,44 @@
         </is>
       </c>
       <c r="J94" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Speed Index (Score: 0.01); Max Potential First Input Delay (Score: 0.98); Time to Interactive (Score: 0.01); Ensure text remains visible during webfont load (Score: 0.5); Image elements do not have explicit `width` and `height` (Score: 0.5); Serve static assets with an efficient cache policy (Score: 0.5); Avoid enormous network payloads (Score: 0.5); Avoid an excessive DOM size (Score: 0.5); Properly size images (Score: 0.5); Avoid serving legacy JavaScript to modern browsers (Score: 0.5); Improve image delivery (Score: 0.5); Render blocking requests (Score: 0.5)</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>0</v>
-      </c>
-      <c r="M94" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="N94" t="n">
-        <v>0</v>
-      </c>
-      <c r="O94" t="n">
-        <v>0.01</v>
+          <t>Image elements do not have `[alt]` attributes (Score: 0.52, Severity: Medium); Interactive controls are not keyboard focusable (Score: 0.14, Severity: High); Heading elements are not in a sequentially-descending order (Score: 0.26, Severity: High)</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>0.14, Severity: High</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>Interactive controls are not keyboard focusable (Score: 0.14, Severity: High) (Score: N/A, Severity: Unknown)</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>2.1.1 Keyboard</t>
+        </is>
       </c>
       <c r="P94" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q94" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R94" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="Q94" t="inlineStr"/>
+      <c r="R94" t="inlineStr"/>
       <c r="S94" t="inlineStr"/>
       <c r="T94" t="inlineStr"/>
       <c r="U94" t="inlineStr"/>
       <c r="V94" t="inlineStr"/>
       <c r="W94" t="inlineStr"/>
       <c r="X94" t="inlineStr"/>
-      <c r="Y94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -7158,39 +7700,44 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>First Contentful Paint (Score: 0.94); Largest Contentful Paint (Score: 0.93); Speed Index (Score: 0.97); Time to Interactive (Score: 0.99); Image elements do not have explicit `width` and `height` (Score: 0.5); Serve static assets with an efficient cache policy (Score: 0.5); Minify JavaScript (Score: 0.5); Document request latency (Score: 0.5)</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="N95" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="O95" t="n">
-        <v>0.97</v>
-      </c>
+          <t>ARIA attributes are not used correctly (Score: 0.93, Severity: Low)</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="inlineStr"/>
+      <c r="O95" t="inlineStr"/>
       <c r="P95" t="n">
         <v>0</v>
       </c>
-      <c r="Q95" t="n">
-        <v>0</v>
-      </c>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="inlineStr"/>
-      <c r="T95" t="inlineStr"/>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>0.93, Severity: Low</t>
+        </is>
+      </c>
+      <c r="R95" t="inlineStr">
+        <is>
+          <t>ARIA attributes are not used correctly (Score: 0.93, Severity: Low) (Score: N/A, Severity: Unknown)</t>
+        </is>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>4.1.2 Name, Role, Value</t>
+        </is>
+      </c>
+      <c r="T95" t="inlineStr">
+        <is>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
       <c r="U95" t="inlineStr"/>
       <c r="V95" t="inlineStr"/>
       <c r="W95" t="inlineStr"/>
       <c r="X95" t="inlineStr"/>
-      <c r="Y95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -7229,39 +7776,44 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>First Contentful Paint (Score: 0.95); Largest Contentful Paint (Score: 0.71); Speed Index (Score: 0.95); Max Potential First Input Delay (Score: 0.91); Time to Interactive (Score: 0.94); Serve static assets with an efficient cache policy (Score: 0.5); Reduce unused CSS (Score: 0.5); Improve image delivery (Score: 0.5); Render blocking requests (Score: 0.5)</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="M96" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="N96" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="O96" t="n">
-        <v>0.95</v>
-      </c>
+          <t>ARIA attributes are not used correctly (Score: 0.73, Severity: Medium); Heading elements are not in a sequentially-descending order (Score: 0.84, Severity: Low); Buttons do not have an accessible name (Score: 0.34, Severity: High); Background and foreground colors do not have a sufficient contrast ratio (Score: 0.33, Severity: High); Page structure lacks proper landmark regions (Score: 0.71, Severity: Medium)</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="inlineStr"/>
+      <c r="O96" t="inlineStr"/>
       <c r="P96" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q96" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="inlineStr"/>
-      <c r="T96" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>0.73, Severity: Medium</t>
+        </is>
+      </c>
+      <c r="R96" t="inlineStr">
+        <is>
+          <t>ARIA attributes are not used correctly (Score: 0.73, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
+        </is>
+      </c>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>4.1.2 Name, Role, Value</t>
+        </is>
+      </c>
+      <c r="T96" t="inlineStr">
+        <is>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
       <c r="U96" t="inlineStr"/>
       <c r="V96" t="inlineStr"/>
       <c r="W96" t="inlineStr"/>
       <c r="X96" t="inlineStr"/>
-      <c r="Y96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -7300,41 +7852,44 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>First Contentful Paint (Score: 0.02); Speed Index (Score: 0.37); Max Potential First Input Delay (Score: 0.98); Time to Interactive (Score: 0.02); Total Blocking Time (Score: 0.99); Ensure text remains visible during webfont load (Score: 0.5); Image elements do not have explicit `width` and `height` (Score: 0.5); Serve static assets with an efficient cache policy (Score: 0.5); Avoid enormous network payloads (Score: 0.5); Does not use passive listeners to improve scrolling performance (Score: 0.5); Avoid serving legacy JavaScript to modern browsers (Score: 0.5); Improve image delivery (Score: 0.5)</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>0</v>
-      </c>
-      <c r="M97" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="N97" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="O97" t="n">
-        <v>0.37</v>
+          <t>Image elements do not have `[alt]` attributes (Score: 0.14, Severity: High); Interactive controls are not keyboard focusable (Score: 0.63, Severity: Medium); Heading elements are not in a sequentially-descending order (Score: 0.86, Severity: Low)</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>0.63, Severity: Medium</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>Interactive controls are not keyboard focusable (Score: 0.63, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>2.1.1 Keyboard</t>
+        </is>
       </c>
       <c r="P97" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q97" t="n">
-        <v>0</v>
-      </c>
-      <c r="R97" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q97" t="inlineStr"/>
+      <c r="R97" t="inlineStr"/>
       <c r="S97" t="inlineStr"/>
       <c r="T97" t="inlineStr"/>
       <c r="U97" t="inlineStr"/>
       <c r="V97" t="inlineStr"/>
       <c r="W97" t="inlineStr"/>
       <c r="X97" t="inlineStr"/>
-      <c r="Y97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -7373,41 +7928,28 @@
         </is>
       </c>
       <c r="J98" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>First Contentful Paint (Score: 0.28); Largest Contentful Paint (Score: 0.13); Speed Index (Score: 0.84); Max Potential First Input Delay (Score: 0.98); Time to Interactive (Score: 0.64); Ensure text remains visible during webfont load (Score: 0.5); Eliminate render-blocking resources (Score: 0.5); Reduce unused CSS (Score: 0.5); Avoid serving legacy JavaScript to modern browsers (Score: 0.5); Render blocking requests (Score: 0.5)</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="N98" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="O98" t="n">
-        <v>0.84</v>
-      </c>
+          <t>Links do not have a discernible name (Score: 0.58, Severity: Medium); Heading elements are not in a sequentially-descending order (Score: 0.65, Severity: Medium); Background and foreground colors do not have a sufficient contrast ratio (Score: 0.17, Severity: High); Page structure lacks proper landmark regions (Score: 0.76, Severity: Medium)</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="inlineStr"/>
+      <c r="O98" t="inlineStr"/>
       <c r="P98" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q98" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R98" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q98" t="inlineStr"/>
+      <c r="R98" t="inlineStr"/>
       <c r="S98" t="inlineStr"/>
       <c r="T98" t="inlineStr"/>
       <c r="U98" t="inlineStr"/>
       <c r="V98" t="inlineStr"/>
       <c r="W98" t="inlineStr"/>
       <c r="X98" t="inlineStr"/>
-      <c r="Y98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -7446,41 +7988,28 @@
         </is>
       </c>
       <c r="J99" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>Speed Index (Score: 0.25); Max Potential First Input Delay (Score: 0.96); Time to Interactive (Score: 0.03); Total Blocking Time (Score: 0.98); Ensure text remains visible during webfont load (Score: 0.5); Serve static assets with an efficient cache policy (Score: 0.5); Defer offscreen images (Score: 0.5); Avoid serving legacy JavaScript to modern browsers (Score: 0.5); Improve image delivery (Score: 0.5)</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>0</v>
-      </c>
-      <c r="M99" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="N99" t="n">
-        <v>0</v>
-      </c>
-      <c r="O99" t="n">
-        <v>0.25</v>
-      </c>
+          <t>Links do not have a discernible name (Score: 0.84, Severity: Low)</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="inlineStr"/>
+      <c r="O99" t="inlineStr"/>
       <c r="P99" t="n">
         <v>0</v>
       </c>
-      <c r="Q99" t="n">
-        <v>0</v>
-      </c>
-      <c r="R99" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q99" t="inlineStr"/>
+      <c r="R99" t="inlineStr"/>
       <c r="S99" t="inlineStr"/>
       <c r="T99" t="inlineStr"/>
       <c r="U99" t="inlineStr"/>
       <c r="V99" t="inlineStr"/>
       <c r="W99" t="inlineStr"/>
       <c r="X99" t="inlineStr"/>
-      <c r="Y99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -7519,41 +8048,60 @@
         </is>
       </c>
       <c r="J100" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>First Contentful Paint (Score: 0.06); Speed Index (Score: 0.22); Max Potential First Input Delay (Score: 0.96); Time to Interactive (Score: 0.05); Total Blocking Time (Score: 0.93); Ensure text remains visible during webfont load (Score: 0.5); Image elements do not have explicit `width` and `height` (Score: 0.5); Serve static assets with an efficient cache policy (Score: 0.5); Avoid enormous network payloads (Score: 0.5); Avoid an excessive DOM size (Score: 0.5); Properly size images (Score: 0.5); Efficiently encode images (Score: 0.5); Improve image delivery (Score: 0.5)</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>0</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="N100" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="O100" t="n">
-        <v>0.22</v>
+          <t>Image elements do not have `[alt]` attributes (Score: 0.57, Severity: Medium); Links do not have a discernible name (Score: 0.55, Severity: Medium); Interactive controls are not keyboard focusable (Score: 0.42, Severity: High); Form elements do not have associated labels (Score: 0.16, Severity: High); Heading elements are not in a sequentially-descending order (Score: 0.82, Severity: Low)</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>0.42, Severity: High</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>Interactive controls are not keyboard focusable (Score: 0.42, Severity: High) (Score: N/A, Severity: Unknown)</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>2.1.1 Keyboard</t>
+        </is>
       </c>
       <c r="P100" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q100" t="n">
-        <v>0</v>
-      </c>
-      <c r="R100" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="Q100" t="inlineStr"/>
+      <c r="R100" t="inlineStr"/>
       <c r="S100" t="inlineStr"/>
       <c r="T100" t="inlineStr"/>
-      <c r="U100" t="inlineStr"/>
-      <c r="V100" t="inlineStr"/>
-      <c r="W100" t="inlineStr"/>
-      <c r="X100" t="inlineStr"/>
-      <c r="Y100" t="inlineStr"/>
+      <c r="U100" t="inlineStr">
+        <is>
+          <t>0.16, Severity: High</t>
+        </is>
+      </c>
+      <c r="V100" t="inlineStr">
+        <is>
+          <t>3.3.2 Labels or Instructions</t>
+        </is>
+      </c>
+      <c r="W100" t="inlineStr">
+        <is>
+          <t>Form elements do not have associated labels (Score: 0.16, Severity: High) (Score: N/A, Severity: Unknown)</t>
+        </is>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
